--- a/data/results/results_one_sample_rec60.xlsx
+++ b/data/results/results_one_sample_rec60.xlsx
@@ -412,23 +412,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso1</t>
+          <t>3-Hydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C2">
-        <v>1.583472391427597</v>
+        <v>9.727145090990566</v>
       </c>
       <c r="D2">
-        <v>0.0436</v>
+        <v>0.00438</v>
       </c>
       <c r="E2">
-        <v>0.007009134883236536</v>
+        <v>1.143606123159374e-23</v>
       </c>
       <c r="F2">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G2">
-        <v>1.360513510731414</v>
+        <v>2.3585258894959</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="I2">
-        <v>0.9999823780018686</v>
+        <v>4.299959023079248e-22</v>
       </c>
     </row>
     <row r="3">
@@ -447,26 +447,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso1</t>
+          <t>Pregnenolone Sulfate</t>
         </is>
       </c>
       <c r="C3">
-        <v>1.405372185708009</v>
+        <v>9.160931286401087</v>
       </c>
       <c r="D3">
-        <v>0.289</v>
+        <v>0.00431</v>
       </c>
       <c r="E3">
-        <v>0.1747273229295476</v>
+        <v>2.136037218081522e-22</v>
       </c>
       <c r="F3">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G3">
-        <v>0.5391021572434522</v>
+        <v>2.365522729839268</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I3">
-        <v>0.9999823780018686</v>
+        <v>6.692916616655436e-21</v>
       </c>
     </row>
     <row r="4">
@@ -477,26 +482,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Succinate_iso2</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
         </is>
       </c>
       <c r="C4">
-        <v>1.289743590688083</v>
+        <v>9.131118330348762</v>
       </c>
       <c r="D4">
-        <v>0.151</v>
+        <v>0.0254</v>
       </c>
       <c r="E4">
-        <v>0.08731538634370517</v>
+        <v>2.71861625871748e-15</v>
       </c>
       <c r="F4">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G4">
-        <v>0.8210230527068306</v>
+        <v>1.595166283380062</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I4">
-        <v>0.9999823780018686</v>
+        <v>2.839443647993813e-14</v>
       </c>
     </row>
     <row r="5">
@@ -507,26 +517,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Idp (Inosine 5'-Diphosphate)</t>
+          <t>L-Tryptophan</t>
         </is>
       </c>
       <c r="C5">
-        <v>1.049079436239892</v>
+        <v>8.66724466103584</v>
       </c>
       <c r="D5">
-        <v>0.173</v>
+        <v>0.00553</v>
       </c>
       <c r="E5">
-        <v>0.1587266445429131</v>
+        <v>2.726757057143125e-20</v>
       </c>
       <c r="F5">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G5">
-        <v>0.7619538968712046</v>
+        <v>2.257274868695302</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I5">
-        <v>0.9999823780018686</v>
+        <v>7.323290382041537e-19</v>
       </c>
     </row>
     <row r="6">
@@ -537,26 +552,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ethylmalonate</t>
+          <t>Urate_iso2</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.8623835916845859</v>
+        <v>8.469961095592716</v>
       </c>
       <c r="D6">
-        <v>0.139</v>
+        <v>0.0248</v>
       </c>
       <c r="E6">
-        <v>0.1823685837408391</v>
+        <v>2.51807232260454e-14</v>
       </c>
       <c r="F6">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G6">
-        <v>0.8569851997459049</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I6">
-        <v>0.9999823780018686</v>
+        <v>2.058250420215885e-13</v>
       </c>
     </row>
     <row r="7">
@@ -567,26 +587,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Homovanillate_iso2</t>
+          <t>Indoxyl Sulfate_iso4</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.7993653400394692</v>
+        <v>7.846506384540342</v>
       </c>
       <c r="D7">
-        <v>0.227</v>
+        <v>0.025</v>
       </c>
       <c r="E7">
-        <v>0.3056535120718047</v>
+        <v>2.687980102844452e-13</v>
       </c>
       <c r="F7">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G7">
-        <v>0.6439741428068773</v>
+        <v>1.602059991327962</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I7">
-        <v>0.9999823780018686</v>
+        <v>1.804786640481275e-12</v>
       </c>
     </row>
     <row r="8">
@@ -597,26 +622,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sphinganine</t>
+          <t>Phenylalanine</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.6550890295150812</v>
+        <v>7.805162622030059</v>
       </c>
       <c r="D8">
-        <v>0.09379999999999999</v>
+        <v>0.00431</v>
       </c>
       <c r="E8">
-        <v>0.2121784902402652</v>
+        <v>3.441203908483018e-19</v>
       </c>
       <c r="F8">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G8">
-        <v>1.027797161620936</v>
+        <v>2.365522729839268</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I8">
-        <v>0.9999823780018686</v>
+        <v>7.188292608831194e-18</v>
       </c>
     </row>
     <row r="9">
@@ -627,26 +657,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6-Carboxyhexanoate</t>
+          <t>L-Tyrosine</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.5833018865998236</v>
+        <v>7.774866139961827</v>
       </c>
       <c r="D9">
-        <v>0.383</v>
+        <v>0.00396</v>
       </c>
       <c r="E9">
-        <v>0.5713195145715239</v>
+        <v>2.100881918066517e-19</v>
       </c>
       <c r="F9">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G9">
-        <v>0.4168012260313773</v>
+        <v>2.402304814074488</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I9">
-        <v>0.9999823780018686</v>
+        <v>4.937072507456314e-18</v>
       </c>
     </row>
     <row r="10">
@@ -657,26 +692,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Palmitoleic Acid</t>
+          <t>Pyrocatechol</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.5802453109511435</v>
+        <v>7.647468559836975</v>
       </c>
       <c r="D10">
-        <v>0.391</v>
+        <v>0.00538</v>
       </c>
       <c r="E10">
-        <v>0.5799125076456944</v>
+        <v>4.428216009658324e-18</v>
       </c>
       <c r="F10">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G10">
-        <v>0.4078232426041332</v>
+        <v>2.269217724333611</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I10">
-        <v>0.9999823780018686</v>
+        <v>8.325046098157648e-17</v>
       </c>
     </row>
     <row r="11">
@@ -687,26 +727,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tigloylcarnitine</t>
+          <t>2-Methylbutyrylcarnitine</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.5758854351504887</v>
+        <v>7.512503312638263</v>
       </c>
       <c r="D11">
-        <v>0.0577</v>
+        <v>1.55e-06</v>
       </c>
       <c r="E11">
-        <v>0.1934546593191272</v>
+        <v>2.26384994547249e-44</v>
       </c>
       <c r="F11">
-        <v>0.9572112676056338</v>
+        <v>0.00016074</v>
       </c>
       <c r="G11">
-        <v>1.238824186844269</v>
+        <v>5.809668301829708</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I11">
-        <v>0.9999823780018686</v>
+        <v>4.256037897488282e-42</v>
       </c>
     </row>
     <row r="12">
@@ -717,26 +762,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arachidonylcarnitine</t>
+          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.5506121865722473</v>
+        <v>7.479556969449965</v>
       </c>
       <c r="D12">
-        <v>0.126</v>
+        <v>0.00497</v>
       </c>
       <c r="E12">
-        <v>0.3196340655152516</v>
+        <v>5.88526973369886e-18</v>
       </c>
       <c r="F12">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G12">
-        <v>0.8996294548824371</v>
+        <v>2.303643611266668</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I12">
-        <v>0.9999823780018686</v>
+        <v>1.00584609994126e-16</v>
       </c>
     </row>
     <row r="13">
@@ -747,26 +797,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
+          <t>Ketoleucine</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5440472222824108</v>
+        <v>7.097928386263092</v>
       </c>
       <c r="D13">
-        <v>0.317</v>
+        <v>0.0257</v>
       </c>
       <c r="E13">
-        <v>0.5352450721100881</v>
+        <v>5.173913694681996e-12</v>
       </c>
       <c r="F13">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G13">
-        <v>0.4989407377822485</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I13">
-        <v>0.9999823780018686</v>
+        <v>2.881128148135414e-11</v>
       </c>
     </row>
     <row r="14">
@@ -777,26 +832,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Benzoate</t>
+          <t>Oleoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.5307159618487517</v>
+        <v>7.097525076154911</v>
       </c>
       <c r="D14">
-        <v>0.42</v>
+        <v>0.00417</v>
       </c>
       <c r="E14">
-        <v>0.6310334554008321</v>
+        <v>1.284860483359802e-17</v>
       </c>
       <c r="F14">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G14">
-        <v>0.3767507096020996</v>
+        <v>2.379863945026242</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I14">
-        <v>0.9999823780018686</v>
+        <v>2.012948090597024e-16</v>
       </c>
     </row>
     <row r="15">
@@ -807,26 +867,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4-Coumarate</t>
+          <t>Methionine_iso2</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.5263616183030853</v>
+        <v>7.055427285654566</v>
       </c>
       <c r="D15">
-        <v>0.642</v>
+        <v>1.71e-06</v>
       </c>
       <c r="E15">
-        <v>0.7919428203567399</v>
+        <v>2.047969105272422e-41</v>
       </c>
       <c r="F15">
-        <v>0.9572112676056338</v>
+        <v>0.00016074</v>
       </c>
       <c r="G15">
-        <v>0.1924649719311467</v>
+        <v>5.767003889607846</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I15">
-        <v>0.9999823780018686</v>
+        <v>1.925090958956076e-39</v>
       </c>
     </row>
     <row r="16">
@@ -837,26 +902,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Indole-3-Methyl Acetate</t>
+          <t>Citrate_iso1</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.4904672559886492</v>
+        <v>6.995423970966654</v>
       </c>
       <c r="D16">
-        <v>0.0395</v>
+        <v>0.0257</v>
       </c>
       <c r="E16">
-        <v>0.2049636415258697</v>
+        <v>7.530226778599943e-12</v>
       </c>
       <c r="F16">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G16">
-        <v>1.40340290437354</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I16">
-        <v>0.9999823780018686</v>
+        <v>4.044807526790827e-11</v>
       </c>
     </row>
     <row r="17">
@@ -867,26 +937,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lauric Acid</t>
+          <t>Pregnanediol-3-Glucuronide</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.4781562046465055</v>
+        <v>6.92255143447591</v>
       </c>
       <c r="D17">
-        <v>0.346</v>
+        <v>0.00528</v>
       </c>
       <c r="E17">
-        <v>0.6020137030172836</v>
+        <v>1.717181470878237e-16</v>
       </c>
       <c r="F17">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G17">
-        <v>0.4609239012072234</v>
+        <v>2.277366077466188</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I17">
-        <v>0.9999823780018686</v>
+        <v>2.483308588654682e-15</v>
       </c>
     </row>
     <row r="18">
@@ -897,26 +972,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso2</t>
+          <t>Arachidonic Acid</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.4745380196478527</v>
+        <v>6.837175185439442</v>
       </c>
       <c r="D18">
-        <v>0.37</v>
+        <v>0.0264</v>
       </c>
       <c r="E18">
-        <v>0.6238717223998126</v>
+        <v>1.615212013089314e-11</v>
       </c>
       <c r="F18">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G18">
-        <v>0.431798275933005</v>
+        <v>1.578396073130169</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I18">
-        <v>0.9999823780018686</v>
+        <v>7.624701332895847e-11</v>
       </c>
     </row>
     <row r="19">
@@ -927,26 +1007,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Docosapentaenoic Acid</t>
+          <t>L-Carnitine</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.4728717678182305</v>
+        <v>6.762654717594295</v>
       </c>
       <c r="D19">
-        <v>0.395</v>
+        <v>0.00512</v>
       </c>
       <c r="E19">
-        <v>0.644528543865838</v>
+        <v>3.225400841042943e-16</v>
       </c>
       <c r="F19">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G19">
-        <v>0.4034029043735398</v>
+        <v>2.290730039024169</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I19">
-        <v>0.9999823780018686</v>
+        <v>4.04250238744049e-15</v>
       </c>
     </row>
     <row r="20">
@@ -957,26 +1042,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso2</t>
+          <t>Hydroxyphenyllactate</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.4538500349774464</v>
+        <v>6.728218253002137</v>
       </c>
       <c r="D20">
-        <v>0.573</v>
+        <v>0.0244</v>
       </c>
       <c r="E20">
-        <v>0.7766734631336475</v>
+        <v>1.412559644134564e-11</v>
       </c>
       <c r="F20">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G20">
-        <v>0.2418453780326101</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I20">
-        <v>0.9999823780018686</v>
+        <v>6.988452976244682e-11</v>
       </c>
     </row>
     <row r="21">
@@ -987,26 +1077,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Heptadec-10-Enoic Acid</t>
+          <t>Isovalerylcarnitine</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.4392353559958957</v>
+        <v>6.714855360312081</v>
       </c>
       <c r="D21">
-        <v>0.496</v>
+        <v>0.00457</v>
       </c>
       <c r="E21">
-        <v>0.7349279862903747</v>
+        <v>1.934976756251091e-16</v>
       </c>
       <c r="F21">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G21">
-        <v>0.3045183235098026</v>
+        <v>2.34008379993015</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I21">
-        <v>0.9999823780018686</v>
+        <v>2.598397358394322e-15</v>
       </c>
     </row>
     <row r="22">
@@ -1017,26 +1112,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
+          <t>Linoleic Acid (18:2 N?6)</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.432162501494038</v>
+        <v>6.499480416277737</v>
       </c>
       <c r="D22">
-        <v>0.284</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="E22">
-        <v>0.5804230972092274</v>
+        <v>5.457454439421807e-08</v>
       </c>
       <c r="F22">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G22">
-        <v>0.5466816599529624</v>
+        <v>1.117475462045119</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I22">
-        <v>0.9999823780018686</v>
+        <v>1.554547628198939e-07</v>
       </c>
     </row>
     <row r="23">
@@ -1047,26 +1147,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Palmitate</t>
+          <t>4-Methylcatechol_iso2</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.4227268522013606</v>
+        <v>6.452380876828445</v>
       </c>
       <c r="D23">
-        <v>0.61</v>
+        <v>0.025</v>
       </c>
       <c r="E23">
-        <v>0.8114339172567113</v>
+        <v>4.601492817007093e-11</v>
       </c>
       <c r="F23">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G23">
-        <v>0.214670164989233</v>
+        <v>1.602059991327962</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I23">
-        <v>0.9999823780018686</v>
+        <v>2.109952803895935e-10</v>
       </c>
     </row>
     <row r="24">
@@ -1077,26 +1182,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Deoxyuridine-Monophosphate</t>
+          <t>Caffeine</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.419467254094768</v>
+        <v>6.421213028190332</v>
       </c>
       <c r="D24">
-        <v>0.527</v>
+        <v>0.0271</v>
       </c>
       <c r="E24">
-        <v>0.7643788514394874</v>
+        <v>8.664868875878677e-11</v>
       </c>
       <c r="F24">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G24">
-        <v>0.2781893847874534</v>
+        <v>1.567030709125594</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I24">
-        <v>0.9999823780018686</v>
+        <v>3.788361275965561e-10</v>
       </c>
     </row>
     <row r="25">
@@ -1107,26 +1217,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Palmitoylcarnitine_[M+Na]+</t>
+          <t>3-Indoleacrylic Acid_iso2</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.4051451716045056</v>
+        <v>6.193696058242196</v>
       </c>
       <c r="D25">
-        <v>0.164</v>
+        <v>0.0041</v>
       </c>
       <c r="E25">
-        <v>0.4807261821528926</v>
+        <v>1.637980711102169e-15</v>
       </c>
       <c r="F25">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G25">
-        <v>0.7851561519523022</v>
+        <v>2.387216143280265</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I25">
-        <v>0.9999823780018686</v>
+        <v>1.924627335545048e-14</v>
       </c>
     </row>
     <row r="26">
@@ -1137,26 +1252,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Trans-2-Dodecenoylcarnitine</t>
+          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.388399589336493</v>
+        <v>6.13225872109366</v>
       </c>
       <c r="D26">
-        <v>0.143</v>
+        <v>0.0246</v>
       </c>
       <c r="E26">
-        <v>0.4698214748126943</v>
+        <v>1.357681116910576e-10</v>
       </c>
       <c r="F26">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G26">
-        <v>0.8446639625349383</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I26">
-        <v>0.9999823780018686</v>
+        <v>5.801001135890643e-10</v>
       </c>
     </row>
     <row r="27">
@@ -1167,26 +1287,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso2</t>
+          <t>2,3-Dihydroxybenzoate</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.3753978183704057</v>
+        <v>6.125906217157043</v>
       </c>
       <c r="D27">
-        <v>0.61</v>
+        <v>0.004</v>
       </c>
       <c r="E27">
-        <v>0.8306408556835341</v>
+        <v>2.043828225466832e-15</v>
       </c>
       <c r="F27">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G27">
-        <v>0.214670164989233</v>
+        <v>2.397940008672037</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I27">
-        <v>0.9999823780018686</v>
+        <v>2.26023356698685e-14</v>
       </c>
     </row>
     <row r="28">
@@ -1197,26 +1322,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>O-Octanoylcarnitine</t>
+          <t>Palmitoleic Acid</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.3684734637473918</v>
+        <v>6.091214481762245</v>
       </c>
       <c r="D28">
-        <v>0.105</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="E28">
-        <v>0.4358471702636261</v>
+        <v>1.499080106754978e-07</v>
       </c>
       <c r="F28">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G28">
-        <v>0.9788107009300619</v>
+        <v>1.120330794367946</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I28">
-        <v>0.9999823780018686</v>
+        <v>4.026100858141941e-07</v>
       </c>
     </row>
     <row r="29">
@@ -1227,26 +1357,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Homovanillate_iso1</t>
+          <t>Hexanoylcarnitine</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.3644361900352762</v>
+        <v>6.086110896142825</v>
       </c>
       <c r="D29">
-        <v>0.134</v>
+        <v>0.00431</v>
       </c>
       <c r="E29">
-        <v>0.4807124813506182</v>
+        <v>4.010202827389597e-15</v>
       </c>
       <c r="F29">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G29">
-        <v>0.8728952016351923</v>
+        <v>2.365522729839268</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I29">
-        <v>0.9999823780018686</v>
+        <v>3.967990166048653e-14</v>
       </c>
     </row>
     <row r="30">
@@ -1257,26 +1392,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso2</t>
+          <t>Isobutyrylcarnitine</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.3535214705820225</v>
+        <v>6.058116785834086</v>
       </c>
       <c r="D30">
-        <v>0.531</v>
+        <v>0.00635</v>
       </c>
       <c r="E30">
-        <v>0.7994936354962975</v>
+        <v>4.885923050789415e-14</v>
       </c>
       <c r="F30">
-        <v>0.9572112676056338</v>
+        <v>0.03617575757575758</v>
       </c>
       <c r="G30">
-        <v>0.2749054789185309</v>
+        <v>2.197226274708024</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I30">
-        <v>0.9999823780018686</v>
+        <v>3.827306389785042e-13</v>
       </c>
     </row>
     <row r="31">
@@ -1287,26 +1427,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
+          <t>Decanoylcarnitine</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.3524106451134603</v>
+        <v>6.019363529318611</v>
       </c>
       <c r="D31">
-        <v>0.239</v>
+        <v>0.0243</v>
       </c>
       <c r="E31">
-        <v>0.6038663134607593</v>
+        <v>1.915919604521662e-10</v>
       </c>
       <c r="F31">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G31">
-        <v>0.6216020990518624</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I31">
-        <v>0.9999823780018686</v>
+        <v>8.004286347779389e-10</v>
       </c>
     </row>
     <row r="32">
@@ -1317,26 +1462,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pregnanediol-3-Glucuronide</t>
+          <t>3-Methylindole</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.3354816062425527</v>
+        <v>5.976414060977171</v>
       </c>
       <c r="D32">
-        <v>0.382</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E32">
-        <v>0.7240856583472458</v>
+        <v>2.494951718532609e-26</v>
       </c>
       <c r="F32">
-        <v>0.9572112676056338</v>
+        <v>0.002444</v>
       </c>
       <c r="G32">
-        <v>0.4179366370882913</v>
+        <v>4.283996656365201</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I32">
-        <v>0.9999823780018686</v>
+        <v>1.172627307710326e-24</v>
       </c>
     </row>
     <row r="33">
@@ -1347,26 +1497,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2,3-Dihydroxybenzoate</t>
+          <t>Succinate_iso2</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.3353353424482846</v>
+        <v>5.963033112758082</v>
       </c>
       <c r="D33">
-        <v>0.493</v>
+        <v>0.0254</v>
       </c>
       <c r="E33">
-        <v>0.7888614190678774</v>
+        <v>3.075888807907305e-10</v>
       </c>
       <c r="F33">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G33">
-        <v>0.30715308072277</v>
+        <v>1.595166283380062</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I33">
-        <v>0.9999823780018686</v>
+        <v>1.230355523162922e-09</v>
       </c>
     </row>
     <row r="34">
@@ -1377,26 +1532,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Decanoylcarnitine</t>
+          <t>Palmitoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.3265746944597301</v>
+        <v>5.955016496973384</v>
       </c>
       <c r="D34">
-        <v>0.157</v>
+        <v>0.0237</v>
       </c>
       <c r="E34">
-        <v>0.5462622317292944</v>
+        <v>2.097005592842449e-10</v>
       </c>
       <c r="F34">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G34">
-        <v>0.8041003475907662</v>
+        <v>1.625251653989896</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I34">
-        <v>0.9999823780018686</v>
+        <v>8.57037068379088e-10</v>
       </c>
     </row>
     <row r="35">
@@ -1407,26 +1567,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2-Hydroxylauric Acid</t>
+          <t>Indole-3-Methyl Acetate</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.3238010236095736</v>
+        <v>5.906110421082999</v>
       </c>
       <c r="D35">
-        <v>0.263</v>
+        <v>9.07e-06</v>
       </c>
       <c r="E35">
-        <v>0.6489049358802146</v>
+        <v>1.656043921416897e-30</v>
       </c>
       <c r="F35">
-        <v>0.9572112676056338</v>
+        <v>0.0005683866666666666</v>
       </c>
       <c r="G35">
-        <v>0.5800442515102421</v>
+        <v>5.042392712939905</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I35">
-        <v>0.9999823780018686</v>
+        <v>1.037787524087922e-28</v>
       </c>
     </row>
     <row r="36">
@@ -1437,26 +1602,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Heptadecanoate</t>
+          <t>Trans-2-Dodecenoylcarnitine</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.3191164816967935</v>
+        <v>5.888136221468098</v>
       </c>
       <c r="D36">
-        <v>0.601</v>
+        <v>0.00398</v>
       </c>
       <c r="E36">
-        <v>0.8500318515913556</v>
+        <v>7.375383050682326e-15</v>
       </c>
       <c r="F36">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G36">
-        <v>0.2211255279972605</v>
+        <v>2.400116927926312</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I36">
-        <v>0.9999823780018686</v>
+        <v>6.932860067641386e-14</v>
       </c>
     </row>
     <row r="37">
@@ -1467,26 +1637,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Stearoylcarnitine_[M+Na]+</t>
+          <t>Tigloylcarnitine</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.3131404964965164</v>
+        <v>5.858921829052568</v>
       </c>
       <c r="D37">
-        <v>0.231</v>
+        <v>0.00454</v>
       </c>
       <c r="E37">
-        <v>0.6320059099308014</v>
+        <v>1.874447978891847e-14</v>
       </c>
       <c r="F37">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G37">
-        <v>0.6363880201078557</v>
+        <v>2.342944147142896</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I37">
-        <v>0.9999823780018686</v>
+        <v>1.678077238246034e-13</v>
       </c>
     </row>
     <row r="38">
@@ -1497,26 +1672,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2-Methylbutyrylcarnitine</t>
+          <t>Lauroylcarnitine</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.3130549192904722</v>
+        <v>5.852778310554168</v>
       </c>
       <c r="D38">
-        <v>0.00348</v>
+        <v>0.00466</v>
       </c>
       <c r="E38">
-        <v>0.1699727451798821</v>
+        <v>2.257250015204304e-14</v>
       </c>
       <c r="F38">
-        <v>0.4324</v>
+        <v>0.0358375</v>
       </c>
       <c r="G38">
-        <v>2.458420756053419</v>
+        <v>2.33161408331</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I38">
-        <v>0.9999823780018686</v>
+        <v>1.928922740265497e-13</v>
       </c>
     </row>
     <row r="39">
@@ -1527,26 +1707,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kynurenic Acid</t>
+          <t>O-Acetylcarnitine</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.3070185310561752</v>
+        <v>5.820574014891966</v>
       </c>
       <c r="D39">
-        <v>0.214</v>
+        <v>0.0261</v>
       </c>
       <c r="E39">
-        <v>0.6229090208334038</v>
+        <v>6.080494231220125e-10</v>
       </c>
       <c r="F39">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G39">
-        <v>0.6695862266508091</v>
+        <v>1.583359492661719</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I39">
-        <v>0.9999823780018686</v>
+        <v>2.332924317284456e-09</v>
       </c>
     </row>
     <row r="40">
@@ -1557,26 +1742,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ascorbate</t>
+          <t>Deoxyuridine-Monophosphate</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.2980511345309034</v>
+        <v>5.81113362357052</v>
       </c>
       <c r="D40">
-        <v>0.591</v>
+        <v>0.0289</v>
       </c>
       <c r="E40">
-        <v>0.8549119535884847</v>
+        <v>1.137815128607613e-09</v>
       </c>
       <c r="F40">
-        <v>0.9572112676056338</v>
+        <v>0.0659132530120482</v>
       </c>
       <c r="G40">
-        <v>0.2284125191187447</v>
+        <v>1.539102157243452</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I40">
-        <v>0.9999823780018686</v>
+        <v>4.194298905455514e-09</v>
       </c>
     </row>
     <row r="41">
@@ -1587,26 +1777,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Itaconate_iso1</t>
+          <t>O-Octanoylcarnitine</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.2948200578013931</v>
+        <v>5.777043030058371</v>
       </c>
       <c r="D41">
-        <v>0.344</v>
+        <v>0.0237</v>
       </c>
       <c r="E41">
-        <v>0.7300761029891595</v>
+        <v>4.081795666102143e-10</v>
       </c>
       <c r="F41">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G41">
-        <v>0.4634415574284699</v>
+        <v>1.625251653989896</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I41">
-        <v>0.9999823780018686</v>
+        <v>1.598703302556673e-09</v>
       </c>
     </row>
     <row r="42">
@@ -1617,26 +1812,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Oleoylcarnitine_[M+Na]+</t>
+          <t>Indoxyl Sulfate_iso3</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.2887482132211663</v>
+        <v>5.741149312728996</v>
       </c>
       <c r="D42">
-        <v>0.335</v>
+        <v>0.0256</v>
       </c>
       <c r="E42">
-        <v>0.7292182626792375</v>
+        <v>7.268887892538163e-10</v>
       </c>
       <c r="F42">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G42">
-        <v>0.4749551929631547</v>
+        <v>1.59176003468815</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I42">
-        <v>0.9999823780018686</v>
+        <v>2.73310184759435e-09</v>
       </c>
     </row>
     <row r="43">
@@ -1647,26 +1847,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hexanoylcarnitine</t>
+          <t>Citrate_iso2</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.2811346395754161</v>
+        <v>5.698236258290621</v>
       </c>
       <c r="D43">
-        <v>0.0499</v>
+        <v>0.0737</v>
       </c>
       <c r="E43">
-        <v>0.4305176550917019</v>
+        <v>3.52015815144901e-07</v>
       </c>
       <c r="F43">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G43">
-        <v>1.30189945437661</v>
+        <v>1.132532512140948</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I43">
-        <v>0.9999823780018686</v>
+        <v>8.707759637794921e-07</v>
       </c>
     </row>
     <row r="44">
@@ -1677,26 +1882,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Isovalerylcarnitine</t>
+          <t>Indoleacetaldehyde_iso1</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.2789060289400719</v>
+        <v>5.687547360023956</v>
       </c>
       <c r="D44">
-        <v>0.06</v>
+        <v>0.00574</v>
       </c>
       <c r="E44">
-        <v>0.4562669560690763</v>
+        <v>1.793515977889765e-13</v>
       </c>
       <c r="F44">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G44">
-        <v>1.221848749616356</v>
+        <v>2.241088107602026</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I44">
-        <v>0.9999823780018686</v>
+        <v>1.29685001478183e-12</v>
       </c>
     </row>
     <row r="45">
@@ -1707,26 +1917,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Linoleic Acid (18:2 N?6)</t>
+          <t>Homovanillate_iso2</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.2770432017590125</v>
+        <v>5.612045769386127</v>
       </c>
       <c r="D45">
-        <v>0.632</v>
+        <v>0.00435</v>
       </c>
       <c r="E45">
-        <v>0.8806229943052652</v>
+        <v>5.585906026270847e-14</v>
       </c>
       <c r="F45">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G45">
-        <v>0.199282921717615</v>
+        <v>2.361510743045363</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I45">
-        <v>0.9999823780018686</v>
+        <v>4.200601331755677e-13</v>
       </c>
     </row>
     <row r="46">
@@ -1737,26 +1952,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2-Oxindole</t>
+          <t>_Linolenic Acid (18:3 N?3)</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.2689967799864688</v>
+        <v>5.517682389318874</v>
       </c>
       <c r="D46">
-        <v>0.41</v>
+        <v>0.0737</v>
       </c>
       <c r="E46">
-        <v>0.7867560736612923</v>
+        <v>5.636964534567431e-07</v>
       </c>
       <c r="F46">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G46">
-        <v>0.3872161432802645</v>
+        <v>1.132532512140948</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I46">
-        <v>0.9999823780018686</v>
+        <v>1.292377234754484e-06</v>
       </c>
     </row>
     <row r="47">
@@ -1767,26 +1987,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Methyl 4-Aminobutyrate</t>
+          <t>Docosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.2653768642698403</v>
+        <v>5.516477621418573</v>
       </c>
       <c r="D47">
-        <v>0.309</v>
+        <v>0.076</v>
       </c>
       <c r="E47">
-        <v>0.7322287563052442</v>
+        <v>6.699358638635885e-07</v>
       </c>
       <c r="F47">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G47">
-        <v>0.5100415205751654</v>
+        <v>1.119186407719209</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I47">
-        <v>0.9999823780018686</v>
+        <v>1.48174049889829e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1797,26 +2022,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pregnenolone Sulfate</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.2639481193282551</v>
+        <v>5.516273875139268</v>
       </c>
       <c r="D48">
-        <v>0.591</v>
+        <v>0.0728</v>
       </c>
       <c r="E48">
-        <v>0.8703840926336431</v>
+        <v>5.286948188196408e-07</v>
       </c>
       <c r="F48">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G48">
-        <v>0.2284125191187447</v>
+        <v>1.137868620686963</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I48">
-        <v>0.9999823780018686</v>
+        <v>1.227094147383858e-06</v>
       </c>
     </row>
     <row r="49">
@@ -1827,26 +2057,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso2</t>
+          <t>Theobromine</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.2626463305307892</v>
+        <v>5.510619000522222</v>
       </c>
       <c r="D49">
-        <v>0.129</v>
+        <v>0.0272</v>
       </c>
       <c r="E49">
-        <v>0.5839822554285163</v>
+        <v>2.363228190213836e-09</v>
       </c>
       <c r="F49">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G49">
-        <v>0.889410289700751</v>
+        <v>1.565431095965801</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I49">
-        <v>0.9999823780018686</v>
+        <v>8.3827716935887e-09</v>
       </c>
     </row>
     <row r="50">
@@ -1857,26 +2092,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Myristoylcarnitine</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.2594784391222756</v>
+        <v>5.453407097956429</v>
       </c>
       <c r="D50">
-        <v>0.171</v>
+        <v>0.00693</v>
       </c>
       <c r="E50">
-        <v>0.6323813129516404</v>
+        <v>1.67741026064787e-12</v>
       </c>
       <c r="F50">
-        <v>0.9572112676056338</v>
+        <v>0.037224</v>
       </c>
       <c r="G50">
-        <v>0.7670038896078462</v>
+        <v>2.159266765388193</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I50">
-        <v>0.9999823780018686</v>
+        <v>1.051177096672665e-11</v>
       </c>
     </row>
     <row r="51">
@@ -1887,26 +2127,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pyrocatechol</t>
+          <t>Taurohyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.2447345747848744</v>
+        <v>5.434523559348456</v>
       </c>
       <c r="D51">
-        <v>0.307</v>
+        <v>0.0731</v>
       </c>
       <c r="E51">
-        <v>0.7490055373091006</v>
+        <v>6.697800687620705e-07</v>
       </c>
       <c r="F51">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G51">
-        <v>0.5128616245228135</v>
+        <v>1.136082623042139</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I51">
-        <v>0.9999823780018686</v>
+        <v>1.48174049889829e-06</v>
       </c>
     </row>
     <row r="52">
@@ -1917,26 +2162,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>L-Tyrosine</t>
+          <t>Chenodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2421716991830428</v>
+        <v>5.413631228657394</v>
       </c>
       <c r="D52">
-        <v>0.0306</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="E52">
-        <v>0.4298179859575943</v>
+        <v>6.969894939293953e-07</v>
       </c>
       <c r="F52">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G52">
-        <v>1.51427857351842</v>
+        <v>1.137272471682025</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I52">
-        <v>0.9999823780018686</v>
+        <v>1.523651451845655e-06</v>
       </c>
     </row>
     <row r="53">
@@ -1947,26 +2197,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Methionine_iso2</t>
+          <t>2-Hydroxyphenylacetate_iso2</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.2418996133202897</v>
+        <v>5.270657546677573</v>
       </c>
       <c r="D53">
-        <v>0.0046</v>
+        <v>0.0067</v>
       </c>
       <c r="E53">
-        <v>0.2720332707652723</v>
+        <v>3.483250859471417e-12</v>
       </c>
       <c r="F53">
-        <v>0.4324</v>
+        <v>0.03704705882352941</v>
       </c>
       <c r="G53">
-        <v>2.337242168318426</v>
+        <v>2.173925197299174</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I53">
-        <v>0.9999823780018686</v>
+        <v>2.046409879939458e-11</v>
       </c>
     </row>
     <row r="54">
@@ -1977,26 +2232,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Indole-3-Acetate_[M+Na]+</t>
+          <t>Ethylmalonate</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2333222135870651</v>
+        <v>5.238502628826906</v>
       </c>
       <c r="D54">
-        <v>0.143</v>
+        <v>0.00393</v>
       </c>
       <c r="E54">
-        <v>0.6352155697433497</v>
+        <v>2.501606814154781e-13</v>
       </c>
       <c r="F54">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G54">
-        <v>0.8446639625349383</v>
+        <v>2.405607449624573</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I54">
-        <v>0.9999823780018686</v>
+        <v>1.741859559485551e-12</v>
       </c>
     </row>
     <row r="55">
@@ -2007,26 +2267,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1-Hydroxy-2-Naphthoate</t>
+          <t>Itaconate_iso2</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.2305088002120543</v>
+        <v>5.2328619758892</v>
       </c>
       <c r="D55">
-        <v>0.223</v>
+        <v>0.0732</v>
       </c>
       <c r="E55">
-        <v>0.7075848665505321</v>
+        <v>1.143255270069919e-06</v>
       </c>
       <c r="F55">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G55">
-        <v>0.6516951369518393</v>
+        <v>1.135488918941608</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I55">
-        <v>0.9999823780018686</v>
+        <v>2.442408986058463e-06</v>
       </c>
     </row>
     <row r="56">
@@ -2037,26 +2302,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
+          <t>2-Hydroxybutyrate_iso1</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.2287746069017929</v>
+        <v>5.218111930702082</v>
       </c>
       <c r="D56">
-        <v>0.633</v>
+        <v>0.0255</v>
       </c>
       <c r="E56">
-        <v>0.900671067122963</v>
+        <v>4.843377327234935e-09</v>
       </c>
       <c r="F56">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G56">
-        <v>0.1985962899826449</v>
+        <v>1.593459819566045</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I56">
-        <v>0.9999823780018686</v>
+        <v>1.625990959857443e-08</v>
       </c>
     </row>
     <row r="57">
@@ -2067,26 +2337,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Adrenic Acid (22:4 N?6)</t>
+          <t>Stearoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.2196268009094575</v>
+        <v>5.183930857882489</v>
       </c>
       <c r="D57">
-        <v>0.6889999999999999</v>
+        <v>0.0234</v>
       </c>
       <c r="E57">
-        <v>0.9214432760564636</v>
+        <v>3.516638777377284e-09</v>
       </c>
       <c r="F57">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G57">
-        <v>0.1617807780923742</v>
+        <v>1.630784142589857</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I57">
-        <v>0.9999823780018686</v>
+        <v>1.202051072994417e-08</v>
       </c>
     </row>
     <row r="58">
@@ -2097,26 +2372,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Isobutyrylcarnitine</t>
+          <t>Tauroursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.2177430309000384</v>
+        <v>5.152279473358504</v>
       </c>
       <c r="D58">
-        <v>0.144</v>
+        <v>0.077</v>
       </c>
       <c r="E58">
-        <v>0.6557515081813841</v>
+        <v>1.831846250555594e-06</v>
       </c>
       <c r="F58">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G58">
-        <v>0.8416375079047503</v>
+        <v>1.113509274827518</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I58">
-        <v>0.9999823780018686</v>
+        <v>3.743337990265778e-06</v>
       </c>
     </row>
     <row r="59">
@@ -2127,26 +2407,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Docosahexaenoic Acid (22:6 N?3)</t>
+          <t>Arachidonylcarnitine</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.2113332694720699</v>
+        <v>5.099531045223544</v>
       </c>
       <c r="D59">
-        <v>0.55</v>
+        <v>0.00461</v>
       </c>
       <c r="E59">
-        <v>0.8813126387217946</v>
+        <v>1.218906345930795e-12</v>
       </c>
       <c r="F59">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G59">
-        <v>0.2596373105057561</v>
+        <v>2.336299074610352</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I59">
-        <v>0.9999823780018686</v>
+        <v>7.901875621896188e-12</v>
       </c>
     </row>
     <row r="60">
@@ -2157,26 +2442,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso1</t>
+          <t>4-Methylcatechol_iso1</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.2103389896207302</v>
+        <v>5.079566800738269</v>
       </c>
       <c r="D60">
-        <v>0.117</v>
+        <v>0.024</v>
       </c>
       <c r="E60">
-        <v>0.6368001479714075</v>
+        <v>5.917997797443459e-09</v>
       </c>
       <c r="F60">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G60">
-        <v>0.9318141382538383</v>
+        <v>1.619788758288394</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I60">
-        <v>0.9999823780018686</v>
+        <v>1.95190102792872e-08</v>
       </c>
     </row>
     <row r="61">
@@ -2187,26 +2477,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hydroxyphenyllactate</t>
+          <t>Myristoylcarnitine</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.2090979873212122</v>
+        <v>5.078255825789701</v>
       </c>
       <c r="D61">
-        <v>0.587</v>
+        <v>0.006</v>
       </c>
       <c r="E61">
-        <v>0.8945872262673901</v>
+        <v>5.210550906202344e-12</v>
       </c>
       <c r="F61">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G61">
-        <v>0.2313618987523856</v>
+        <v>2.221848749616356</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I61">
-        <v>0.9999823780018686</v>
+        <v>2.881128148135414e-11</v>
       </c>
     </row>
     <row r="62">
@@ -2217,26 +2512,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso1</t>
+          <t>Indole-3-Carboxaldehyde_iso2</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.2053988153640322</v>
+        <v>5.078047643377073</v>
       </c>
       <c r="D62">
-        <v>0.641</v>
+        <v>0.0215</v>
       </c>
       <c r="E62">
-        <v>0.9127017181101587</v>
+        <v>3.404419357052445e-09</v>
       </c>
       <c r="F62">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G62">
-        <v>0.1931419704811826</v>
+        <v>1.667561540084395</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I62">
-        <v>0.9999823780018686</v>
+        <v>1.185242294677518e-08</v>
       </c>
     </row>
     <row r="63">
@@ -2247,26 +2547,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ferulate</t>
+          <t>4-Coumarate</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.2013741254416964</v>
+        <v>5.06945202963335</v>
       </c>
       <c r="D63">
-        <v>0.666</v>
+        <v>0.0317</v>
       </c>
       <c r="E63">
-        <v>0.9214086336121078</v>
+        <v>2.518789270016845e-08</v>
       </c>
       <c r="F63">
-        <v>0.9572112676056338</v>
+        <v>0.06929767441860465</v>
       </c>
       <c r="G63">
-        <v>0.1765257708296989</v>
+        <v>1.498940737782249</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I63">
-        <v>0.9999823780018686</v>
+        <v>7.637619076825273e-08</v>
       </c>
     </row>
     <row r="64">
@@ -2277,26 +2582,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>L-Arginine</t>
+          <t>5-Aminolevulinate</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.2010304818977189</v>
+        <v>4.9516144171311</v>
       </c>
       <c r="D64">
-        <v>0.5600000000000001</v>
+        <v>0.0242</v>
       </c>
       <c r="E64">
-        <v>0.8899756363538999</v>
+        <v>9.937493679516733e-09</v>
       </c>
       <c r="F64">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G64">
-        <v>0.2518119729937995</v>
+        <v>1.616184634019569</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I64">
-        <v>0.9999823780018686</v>
+        <v>3.221118640946803e-08</v>
       </c>
     </row>
     <row r="65">
@@ -2307,26 +2617,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Oleic Acid</t>
+          <t>Idp (Inosine 5'-Diphosphate)</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.1999900512423361</v>
+        <v>4.934530072236416</v>
       </c>
       <c r="D65">
-        <v>0.788</v>
+        <v>0.00417</v>
       </c>
       <c r="E65">
-        <v>0.9534683314344502</v>
+        <v>1.805052323544322e-12</v>
       </c>
       <c r="F65">
-        <v>0.961974025974026</v>
+        <v>0.0358375</v>
       </c>
       <c r="G65">
-        <v>0.1034737825104447</v>
+        <v>2.379863945026242</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I65">
-        <v>0.9999823780018686</v>
+        <v>1.09467689298817e-11</v>
       </c>
     </row>
     <row r="66">
@@ -2337,26 +2652,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Eicosadienoic Acid</t>
+          <t>Glutamine_iso2</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.195329999844756</v>
+        <v>4.930082789455388</v>
       </c>
       <c r="D66">
-        <v>0.78</v>
+        <v>0.0251</v>
       </c>
       <c r="E66">
-        <v>0.9526268954614269</v>
+        <v>1.28901792527921e-08</v>
       </c>
       <c r="F66">
-        <v>0.9584313725490197</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G66">
-        <v>0.1079053973095196</v>
+        <v>1.600326278518962</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I66">
-        <v>0.9999823780018686</v>
+        <v>4.107379151737142e-08</v>
       </c>
     </row>
     <row r="67">
@@ -2367,26 +2687,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3-Hydroxyphenylacetate</t>
+          <t>Oleic Acid</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.1935474997025308</v>
+        <v>4.924233240666657</v>
       </c>
       <c r="D67">
-        <v>0.289</v>
+        <v>0.171</v>
       </c>
       <c r="E67">
-        <v>0.7864264746622514</v>
+        <v>0.0001671452161014878</v>
       </c>
       <c r="F67">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G67">
-        <v>0.5391021572434522</v>
+        <v>0.7670038896078462</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I67">
-        <v>0.9999823780018686</v>
+        <v>0.0002474275639927536</v>
       </c>
     </row>
     <row r="68">
@@ -2397,26 +2722,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Aspartame</t>
+          <t>Lauric Acid</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.1924618461342391</v>
+        <v>4.88053335195397</v>
       </c>
       <c r="D68">
-        <v>0.269</v>
+        <v>0.0723</v>
       </c>
       <c r="E68">
-        <v>0.7766924276985178</v>
+        <v>2.703873752681243e-06</v>
       </c>
       <c r="F68">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G68">
-        <v>0.5702477199975919</v>
+        <v>1.140861702705469</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I68">
-        <v>0.9999823780018686</v>
+        <v>5.295086099000767e-06</v>
       </c>
     </row>
     <row r="69">
@@ -2427,26 +2757,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4-Quinolinecarboxylate</t>
+          <t>Tauro-?-Muricholic Acid</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.1899484997126586</v>
+        <v>4.88000843207894</v>
       </c>
       <c r="D69">
-        <v>0.0737</v>
+        <v>0.0771</v>
       </c>
       <c r="E69">
-        <v>0.6093644981659537</v>
+        <v>3.705236899632758e-06</v>
       </c>
       <c r="F69">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G69">
-        <v>1.132532512140948</v>
+        <v>1.112945621949043</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I69">
-        <v>0.9999823780018686</v>
+        <v>7.108005480928147e-06</v>
       </c>
     </row>
     <row r="70">
@@ -2457,26 +2792,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>O-Acetylcarnitine</t>
+          <t>Ferulate</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.187992045328466</v>
+        <v>4.873832057797175</v>
       </c>
       <c r="D70">
-        <v>0.27</v>
+        <v>0.0268</v>
       </c>
       <c r="E70">
-        <v>0.7818094416858244</v>
+        <v>2.182694572873444e-08</v>
       </c>
       <c r="F70">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G70">
-        <v>0.5686362358410126</v>
+        <v>1.571865205971211</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I70">
-        <v>0.9999823780018686</v>
+        <v>6.726993109839468e-08</v>
       </c>
     </row>
     <row r="71">
@@ -2487,26 +2827,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Arachidonic Acid</t>
+          <t>3-Methyl-2-Oxopentanoic Acid</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.1857168915845712</v>
+        <v>4.810707960785705</v>
       </c>
       <c r="D71">
-        <v>0.5639999999999999</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="E71">
-        <v>0.8991006845388358</v>
+        <v>3.9499231897585e-06</v>
       </c>
       <c r="F71">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G71">
-        <v>0.2487208960166578</v>
+        <v>1.123205023799299</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I71">
-        <v>0.9999823780018686</v>
+        <v>7.500864239137354e-06</v>
       </c>
     </row>
     <row r="72">
@@ -2517,26 +2862,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3,4-Dihydroxyphenylacetate</t>
+          <t>Eicosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.1849607279788361</v>
+        <v>4.803109957292225</v>
       </c>
       <c r="D72">
-        <v>0.516</v>
+        <v>0.0732</v>
       </c>
       <c r="E72">
-        <v>0.8848129690429822</v>
+        <v>3.516591054724127e-06</v>
       </c>
       <c r="F72">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G72">
-        <v>0.2873502983727886</v>
+        <v>1.135488918941608</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I72">
-        <v>0.9999823780018686</v>
+        <v>6.815661013279751e-06</v>
       </c>
     </row>
     <row r="73">
@@ -2547,26 +2897,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Biliverdin_[M+Na]+</t>
+          <t>Palmitate</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.1833458822238551</v>
+        <v>4.714846219990503</v>
       </c>
       <c r="D73">
-        <v>0.199</v>
+        <v>0.17</v>
       </c>
       <c r="E73">
-        <v>0.7437853135526205</v>
+        <v>0.0002353341784098685</v>
       </c>
       <c r="F73">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G73">
-        <v>0.7011469235902933</v>
+        <v>0.769551078621726</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I73">
-        <v>0.9999823780018686</v>
+        <v>0.0003403294272388867</v>
       </c>
     </row>
     <row r="74">
@@ -2577,26 +2932,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lauroylcarnitine</t>
+          <t>Aspartame</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.1818559247979109</v>
+        <v>4.714565143649831</v>
       </c>
       <c r="D74">
-        <v>0.29</v>
+        <v>0.0233</v>
       </c>
       <c r="E74">
-        <v>0.7984245657012865</v>
+        <v>2.008136052891747e-08</v>
       </c>
       <c r="F74">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G74">
-        <v>0.5376020021010439</v>
+        <v>1.632644078973981</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I74">
-        <v>0.9999823780018686</v>
+        <v>6.29215963239414e-08</v>
       </c>
     </row>
     <row r="75">
@@ -2607,26 +2967,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Citrulline</t>
+          <t>Itaconate_iso1</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.1777419305455901</v>
+        <v>4.671785484858158</v>
       </c>
       <c r="D75">
-        <v>0.342</v>
+        <v>0.0261</v>
       </c>
       <c r="E75">
-        <v>0.8263744868867856</v>
+        <v>4.007597572497791e-08</v>
       </c>
       <c r="F75">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G75">
-        <v>0.465973893943865</v>
+        <v>1.583359492661719</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I75">
-        <v>0.9999823780018686</v>
+        <v>1.177231786921226e-07</v>
       </c>
     </row>
     <row r="76">
@@ -2637,26 +3002,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cysteate</t>
+          <t>Paraxanthine</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.175082946797383</v>
+        <v>4.648398043279122</v>
       </c>
       <c r="D76">
-        <v>0.596</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="E76">
-        <v>0.9133756992853374</v>
+        <v>5.68357822363016e-06</v>
       </c>
       <c r="F76">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G76">
-        <v>0.2247537402597636</v>
+        <v>1.128427064454121</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I76">
-        <v>0.9999823780018686</v>
+        <v>1.06851270604247e-05</v>
       </c>
     </row>
     <row r="77">
@@ -2667,26 +3037,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Eicosapentaenoic Acid</t>
+          <t>Sphinganine</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.1702726449604258</v>
+        <v>4.647647759269466</v>
       </c>
       <c r="D77">
-        <v>0.549</v>
+        <v>0.00422</v>
       </c>
       <c r="E77">
-        <v>0.902934597879992</v>
+        <v>9.189433382352359e-12</v>
       </c>
       <c r="F77">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G77">
-        <v>0.260427655549908</v>
+        <v>2.374687549038326</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I77">
-        <v>0.9999823780018686</v>
+        <v>4.798926321895121e-11</v>
       </c>
     </row>
     <row r="78">
@@ -2697,26 +3072,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Norleucine</t>
+          <t>Mevalonate</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.1661148274250569</v>
+        <v>4.569056081199253</v>
       </c>
       <c r="D78">
-        <v>0.554</v>
+        <v>0.00435</v>
       </c>
       <c r="E78">
-        <v>0.9065529361410383</v>
+        <v>1.622276879339542e-11</v>
       </c>
       <c r="F78">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G78">
-        <v>0.2564902352715702</v>
+        <v>2.361510743045363</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I78">
-        <v>0.9999823780018686</v>
+        <v>7.624701332895847e-11</v>
       </c>
     </row>
     <row r="79">
@@ -2727,26 +3107,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3-Methylglutaconate</t>
+          <t>Ascorbate</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.1625600874273429</v>
+        <v>4.564028124213612</v>
       </c>
       <c r="D79">
-        <v>0.571</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="E79">
-        <v>0.9129326606682036</v>
+        <v>8.42597063333151e-06</v>
       </c>
       <c r="F79">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G79">
-        <v>0.243363891754152</v>
+        <v>1.111820506081675</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I79">
-        <v>0.9999823780018686</v>
+        <v>1.568398494125073e-05</v>
       </c>
     </row>
     <row r="80">
@@ -2757,26 +3142,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>_13-Hydroxyoctadecadienoic Acid</t>
+          <t>Indole-3-Acetate_[M+Na]+</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.1610247866326363</v>
+        <v>4.506181952322373</v>
       </c>
       <c r="D80">
-        <v>0.663</v>
+        <v>0.00389</v>
       </c>
       <c r="E80">
-        <v>0.9359642353659898</v>
+        <v>1.379985074745675e-11</v>
       </c>
       <c r="F80">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G80">
-        <v>0.1784864715952268</v>
+        <v>2.410050398674292</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I80">
-        <v>0.9999823780018686</v>
+        <v>6.988452976244682e-11</v>
       </c>
     </row>
     <row r="81">
@@ -2787,26 +3177,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Indole-3-Acetamide_[M+Na]+</t>
+          <t>3-Hydroxybenzoate</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.1552185038406096</v>
+        <v>4.477965446102497</v>
       </c>
       <c r="D81">
-        <v>0.529</v>
+        <v>0.0246</v>
       </c>
       <c r="E81">
-        <v>0.9058894526686351</v>
+        <v>6.232510359845439e-08</v>
       </c>
       <c r="F81">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G81">
-        <v>0.2765443279648142</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I81">
-        <v>0.9999823780018686</v>
+        <v>1.748823802464093e-07</v>
       </c>
     </row>
     <row r="82">
@@ -2817,26 +3212,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso3</t>
+          <t>Homovanillate_iso1</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.1539141441024744</v>
+        <v>4.467283146530145</v>
       </c>
       <c r="D82">
-        <v>0.621</v>
+        <v>0.0223</v>
       </c>
       <c r="E82">
-        <v>0.9292955783085525</v>
+        <v>4.182251556738549e-08</v>
       </c>
       <c r="F82">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G82">
-        <v>0.2069083998234198</v>
+        <v>1.651695136951839</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I82">
-        <v>0.9999823780018686</v>
+        <v>1.209635834872073e-07</v>
       </c>
     </row>
     <row r="83">
@@ -2847,26 +3247,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Phenylalanine</t>
+          <t>3,4-Dihydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.1527791628225563</v>
+        <v>4.398600793062478</v>
       </c>
       <c r="D83">
-        <v>0.0445</v>
+        <v>0.0244</v>
       </c>
       <c r="E83">
-        <v>0.621580775605713</v>
+        <v>8.068106294043741e-08</v>
       </c>
       <c r="F83">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G83">
-        <v>1.351639989019068</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I83">
-        <v>0.9999823780018686</v>
+        <v>2.230594093059152e-07</v>
       </c>
     </row>
     <row r="84">
@@ -2877,26 +3282,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hyodeoxycholic Acid</t>
+          <t>Glycodeoxycholic acid</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.1510021308415029</v>
+        <v>4.389147261387472</v>
       </c>
       <c r="D84">
-        <v>0.8179999999999999</v>
+        <v>0.0718</v>
       </c>
       <c r="E84">
-        <v>0.970120234212037</v>
+        <v>9.535901075208778e-06</v>
       </c>
       <c r="F84">
-        <v>0.9819108280254777</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G84">
-        <v>0.08724669632867703</v>
+        <v>1.1438755557577</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I84">
-        <v>0.9999823780018686</v>
+        <v>1.757597453077696e-05</v>
       </c>
     </row>
     <row r="85">
@@ -2907,26 +3317,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>_Linolenic Acid (18:3 N?3)</t>
+          <t>Hyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.1436658515115886</v>
+        <v>4.375272773105984</v>
       </c>
       <c r="D85">
-        <v>0.82</v>
+        <v>0.0813</v>
       </c>
       <c r="E85">
-        <v>0.9718919695905412</v>
+        <v>1.703526284890759e-05</v>
       </c>
       <c r="F85">
-        <v>0.9819108280254777</v>
+        <v>0.1107565217391304</v>
       </c>
       <c r="G85">
-        <v>0.08618614761628333</v>
+        <v>1.089909454405932</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I85">
-        <v>0.9999823780018686</v>
+        <v>3.021348505277949e-05</v>
       </c>
     </row>
     <row r="86">
@@ -2937,26 +3352,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Caffeine</t>
+          <t>Heptadecanoate</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.1430488569676175</v>
+        <v>4.305557893667239</v>
       </c>
       <c r="D86">
-        <v>0.773</v>
+        <v>0.0838</v>
       </c>
       <c r="E86">
-        <v>0.9638383545303087</v>
+        <v>2.311877322023533e-05</v>
       </c>
       <c r="F86">
-        <v>0.9584313725490197</v>
+        <v>0.1125314285714286</v>
       </c>
       <c r="G86">
-        <v>0.1118205060816751</v>
+        <v>1.076755981369723</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I86">
-        <v>0.9999823780018686</v>
+        <v>3.987458133398387e-05</v>
       </c>
     </row>
     <row r="87">
@@ -2967,26 +3387,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ketoleucine</t>
+          <t>2-Hydroxylauric Acid</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.1415541423217776</v>
+        <v>4.297059330289906</v>
       </c>
       <c r="D87">
-        <v>0.318</v>
+        <v>0.0334</v>
       </c>
       <c r="E87">
-        <v>0.8502888766257021</v>
+        <v>4.533681233952399e-07</v>
       </c>
       <c r="F87">
-        <v>0.9572112676056338</v>
+        <v>0.07156818181818182</v>
       </c>
       <c r="G87">
-        <v>0.4975728800155673</v>
+        <v>1.476253533188435</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I87">
-        <v>0.9999823780018686</v>
+        <v>1.078901356940571e-06</v>
       </c>
     </row>
     <row r="88">
@@ -2997,26 +3422,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso4</t>
+          <t>_13-Hydroxyoctadecadienoic Acid</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.1406238234769002</v>
+        <v>4.269769341783369</v>
       </c>
       <c r="D88">
-        <v>0.593</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E88">
-        <v>0.9291505392041276</v>
+        <v>1.434775038283735e-05</v>
       </c>
       <c r="F88">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G88">
-        <v>0.2269453066357374</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I88">
-        <v>0.9999823780018686</v>
+        <v>2.593631799974445e-05</v>
       </c>
     </row>
     <row r="89">
@@ -3027,26 +3457,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3-Methylindole</t>
+          <t>Indoxyl Sulfate_iso1</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.1394509756992671</v>
+        <v>4.269742781028662</v>
       </c>
       <c r="D89">
-        <v>0.0206</v>
+        <v>0.0335</v>
       </c>
       <c r="E89">
-        <v>0.5819251654309225</v>
+        <v>5.03872565113259e-07</v>
       </c>
       <c r="F89">
-        <v>0.9572112676056338</v>
+        <v>0.07156818181818182</v>
       </c>
       <c r="G89">
-        <v>1.686132779630847</v>
+        <v>1.474955192963155</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I89">
-        <v>0.9999823780018686</v>
+        <v>1.184100528016159e-06</v>
       </c>
     </row>
     <row r="90">
@@ -3057,26 +3492,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Caffeate_iso1</t>
+          <t>4-Quinolinecarboxylate</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.1351527977078913</v>
+        <v>4.258464014605083</v>
       </c>
       <c r="D90">
-        <v>0.673</v>
+        <v>0.00408</v>
       </c>
       <c r="E90">
-        <v>0.9478852270462524</v>
+        <v>6.684705608115729e-11</v>
       </c>
       <c r="F90">
-        <v>0.9572112676056338</v>
+        <v>0.0358375</v>
       </c>
       <c r="G90">
-        <v>0.1719849357760231</v>
+        <v>2.38933983691012</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I90">
-        <v>0.9999823780018686</v>
+        <v>2.992201557918469e-10</v>
       </c>
     </row>
     <row r="91">
@@ -3087,26 +3527,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso2</t>
+          <t>Methyl 4-Aminobutyrate</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.1349228475981966</v>
+        <v>4.248378121978785</v>
       </c>
       <c r="D91">
-        <v>0.156</v>
+        <v>0.0235</v>
       </c>
       <c r="E91">
-        <v>0.778276779551098</v>
+        <v>1.201379851015225e-07</v>
       </c>
       <c r="F91">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G91">
-        <v>0.8068754016455384</v>
+        <v>1.628932137728264</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I91">
-        <v>0.9999823780018686</v>
+        <v>3.273324811461771e-07</v>
       </c>
     </row>
     <row r="92">
@@ -3117,26 +3562,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Isoleucine</t>
+          <t>Thyroxine</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.1332419795190976</v>
+        <v>4.237519875099621</v>
       </c>
       <c r="D92">
-        <v>0.493</v>
+        <v>0.0247</v>
       </c>
       <c r="E92">
-        <v>0.9100689882970783</v>
+        <v>1.545330563434773e-07</v>
       </c>
       <c r="F92">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G92">
-        <v>0.30715308072277</v>
+        <v>1.607303046740334</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I92">
-        <v>0.9999823780018686</v>
+        <v>4.091861210221653e-07</v>
       </c>
     </row>
     <row r="93">
@@ -3147,26 +3597,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
+          <t>Heptadec-10-Enoic Acid</t>
         </is>
       </c>
       <c r="C93">
-        <v>0.1329525982155729</v>
+        <v>4.153413770559814</v>
       </c>
       <c r="D93">
-        <v>0.531</v>
+        <v>0.0806</v>
       </c>
       <c r="E93">
-        <v>0.9192859070946281</v>
+        <v>2.867853103627532e-05</v>
       </c>
       <c r="F93">
-        <v>0.9572112676056338</v>
+        <v>0.1106043795620438</v>
       </c>
       <c r="G93">
-        <v>0.2749054789185309</v>
+        <v>1.093664958194909</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I93">
-        <v>0.9999823780018686</v>
+        <v>4.901421668017964e-05</v>
       </c>
     </row>
     <row r="94">
@@ -3177,26 +3632,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Leucine</t>
+          <t>Stearate</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.1320305533984801</v>
+        <v>4.151207083794969</v>
       </c>
       <c r="D94">
-        <v>0.207</v>
+        <v>0.169</v>
       </c>
       <c r="E94">
-        <v>0.8122452610231924</v>
+        <v>0.0006234445297666576</v>
       </c>
       <c r="F94">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G94">
-        <v>0.6840296545430823</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I94">
-        <v>0.9999823780018686</v>
+        <v>0.0008344888494192821</v>
       </c>
     </row>
     <row r="95">
@@ -3207,26 +3667,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5-Aminolevulinate</t>
+          <t>Caffeate_iso1</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.1316417805877619</v>
+        <v>4.146886375711785</v>
       </c>
       <c r="D95">
-        <v>0.488</v>
+        <v>0.0291</v>
       </c>
       <c r="E95">
-        <v>0.9098777197845421</v>
+        <v>4.26519375243482e-07</v>
       </c>
       <c r="F95">
-        <v>0.9572112676056338</v>
+        <v>0.0659132530120482</v>
       </c>
       <c r="G95">
-        <v>0.3115801779972894</v>
+        <v>1.536107011014093</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I95">
-        <v>0.9999823780018686</v>
+        <v>1.028021058279162e-06</v>
       </c>
     </row>
     <row r="96">
@@ -3237,26 +3702,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>L-Carnitine</t>
+          <t>Glycoursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.1313044053981727</v>
+        <v>4.143517470754859</v>
       </c>
       <c r="D96">
-        <v>0.671</v>
+        <v>0.0713</v>
       </c>
       <c r="E96">
-        <v>0.9489599931228175</v>
+        <v>1.769116485756712e-05</v>
       </c>
       <c r="F96">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G96">
-        <v>0.1732774798310079</v>
+        <v>1.146910470148135</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I96">
-        <v>0.9999823780018686</v>
+        <v>3.108354199273474e-05</v>
       </c>
     </row>
     <row r="97">
@@ -3267,26 +3737,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Biliverdin_iso1</t>
+          <t>Indoleacetaldehyde_iso2</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.1226642083193428</v>
+        <v>4.113071036492469</v>
       </c>
       <c r="D97">
-        <v>0.379</v>
+        <v>0.0232</v>
       </c>
       <c r="E97">
-        <v>0.8877978976796317</v>
+        <v>1.892936179149588e-07</v>
       </c>
       <c r="F97">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G97">
-        <v>0.4213607900319277</v>
+        <v>1.6345120151091</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I97">
-        <v>0.9999823780018686</v>
+        <v>4.942666690001701e-07</v>
       </c>
     </row>
     <row r="98">
@@ -3297,26 +3772,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Glutarylcarnitine</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.1226057518514861</v>
+        <v>4.104358010560969</v>
       </c>
       <c r="D98">
-        <v>0.509</v>
+        <v>0.0678</v>
       </c>
       <c r="E98">
-        <v>0.9205384074374611</v>
+        <v>1.595688927647527e-05</v>
       </c>
       <c r="F98">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G98">
-        <v>0.2932822176632413</v>
+        <v>1.168770306132937</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I98">
-        <v>0.9999823780018686</v>
+        <v>2.857043032359382e-05</v>
       </c>
     </row>
     <row r="99">
@@ -3327,26 +3807,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso2</t>
+          <t>Cysteate</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.1192523710777645</v>
+        <v>4.094853512922751</v>
       </c>
       <c r="D99">
-        <v>0.07340000000000001</v>
+        <v>0.0236</v>
       </c>
       <c r="E99">
-        <v>0.7323717193819324</v>
+        <v>2.174267626494096e-07</v>
       </c>
       <c r="F99">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G99">
-        <v>1.134303940083929</v>
+        <v>1.627087997029893</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I99">
-        <v>0.9999823780018686</v>
+        <v>5.599483750423152e-07</v>
       </c>
     </row>
     <row r="100">
@@ -3357,26 +3842,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Glutamine_iso1</t>
+          <t>Isoleucine</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.1189796241906849</v>
+        <v>4.055596318832068</v>
       </c>
       <c r="D100">
-        <v>0.704</v>
+        <v>0.0237</v>
       </c>
       <c r="E100">
-        <v>0.9591007978478249</v>
+        <v>2.562331849800275e-07</v>
       </c>
       <c r="F100">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G100">
-        <v>0.1524273408578878</v>
+        <v>1.625251653989896</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I100">
-        <v>0.9999823780018686</v>
+        <v>6.422911836832688e-07</v>
       </c>
     </row>
     <row r="101">
@@ -3387,26 +3877,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cortisone</t>
+          <t>Aspartate</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.1157761208695568</v>
+        <v>4.040415424976763</v>
       </c>
       <c r="D101">
-        <v>0.735</v>
+        <v>0.0711</v>
       </c>
       <c r="E101">
-        <v>0.9649821208064816</v>
+        <v>2.296551690466416e-05</v>
       </c>
       <c r="F101">
-        <v>0.9584313725490197</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G101">
-        <v>0.1337126609158051</v>
+        <v>1.148130399270234</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I101">
-        <v>0.9999823780018686</v>
+        <v>3.987458133398387e-05</v>
       </c>
     </row>
     <row r="102">
@@ -3417,26 +3912,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Paraxanthine</t>
+          <t>3-Indoleacrylic Acid_iso1</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.1119010067002012</v>
+        <v>4.025210073660504</v>
       </c>
       <c r="D102">
-        <v>0.765</v>
+        <v>0.0061</v>
       </c>
       <c r="E102">
-        <v>0.9704688443307872</v>
+        <v>1.217551505563339e-09</v>
       </c>
       <c r="F102">
-        <v>0.9584313725490197</v>
+        <v>0.0358375</v>
       </c>
       <c r="G102">
-        <v>0.1163385648463824</v>
+        <v>2.214670164989233</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I102">
-        <v>0.9999823780018686</v>
+        <v>4.401916981652072e-09</v>
       </c>
     </row>
     <row r="103">
@@ -3447,26 +3947,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>L-Tryptophan</t>
+          <t>Glycocholic Acid_iso3</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.1074794823466824</v>
+        <v>3.959367723702678</v>
       </c>
       <c r="D103">
-        <v>0.131</v>
+        <v>0.171</v>
       </c>
       <c r="E103">
-        <v>0.8037570139576604</v>
+        <v>0.0009186488919386544</v>
       </c>
       <c r="F103">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G103">
-        <v>0.8827287043442357</v>
+        <v>0.7670038896078462</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I103">
-        <v>0.9999823780018686</v>
+        <v>0.001199347164475465</v>
       </c>
     </row>
     <row r="104">
@@ -3477,26 +3982,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Glutamine_iso2</t>
+          <t>Cortisone</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.1071768026854433</v>
+        <v>3.952371361524431</v>
       </c>
       <c r="D104">
-        <v>0.475</v>
+        <v>0.0243</v>
       </c>
       <c r="E104">
-        <v>0.9233132220360167</v>
+        <v>4.162137941991748e-07</v>
       </c>
       <c r="F104">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G104">
-        <v>0.3233063903751334</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I104">
-        <v>0.9999823780018686</v>
+        <v>1.016210302720063e-06</v>
       </c>
     </row>
     <row r="105">
@@ -3507,26 +4017,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso3</t>
+          <t>Eicosadienoic Acid</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.1008476027172056</v>
+        <v>3.933335184695494</v>
       </c>
       <c r="D105">
-        <v>0.757</v>
+        <v>0.169</v>
       </c>
       <c r="E105">
-        <v>0.9723152766786076</v>
+        <v>0.0009183740607494207</v>
       </c>
       <c r="F105">
-        <v>0.9584313725490197</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G105">
-        <v>0.1209041204999272</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I105">
-        <v>0.9999823780018686</v>
+        <v>0.001199347164475465</v>
       </c>
     </row>
     <row r="106">
@@ -3537,26 +4052,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mevalonate</t>
+          <t>2-Oxindole</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.09907143175340491</v>
+        <v>3.930644646391116</v>
       </c>
       <c r="D106">
-        <v>0.198</v>
+        <v>0.012</v>
       </c>
       <c r="E106">
-        <v>0.8517646527603278</v>
+        <v>2.818019851007805e-08</v>
       </c>
       <c r="F106">
-        <v>0.9572112676056338</v>
+        <v>0.06097297297297298</v>
       </c>
       <c r="G106">
-        <v>0.7033348097384688</v>
+        <v>1.920818753952375</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I106">
-        <v>0.9999823780018686</v>
+        <v>8.409329079197896e-08</v>
       </c>
     </row>
     <row r="107">
@@ -3567,26 +4087,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3-Hydroxybenzoate</t>
+          <t>Docosahexaenoic Acid (22:6 N?3)</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.08736851900495826</v>
+        <v>3.90318557095032</v>
       </c>
       <c r="D107">
-        <v>0.68</v>
+        <v>0.169</v>
       </c>
       <c r="E107">
-        <v>0.9668665861651347</v>
+        <v>0.0009689436620580879</v>
       </c>
       <c r="F107">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G107">
-        <v>0.1674910872937637</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I107">
-        <v>0.9999823780018686</v>
+        <v>0.001247680879910415</v>
       </c>
     </row>
     <row r="108">
@@ -3597,26 +4122,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Eicosenoic Acid</t>
+          <t>Kynurenine</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.0839740768452253</v>
+        <v>3.869051682158554</v>
       </c>
       <c r="D108">
-        <v>0.928</v>
+        <v>0.0703</v>
       </c>
       <c r="E108">
-        <v>0.9937448048904997</v>
+        <v>3.457885119096569e-05</v>
       </c>
       <c r="F108">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G108">
-        <v>0.03245202378113791</v>
+        <v>1.153044674980176</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I108">
-        <v>0.9999823780018686</v>
+        <v>5.804307164197813e-05</v>
       </c>
     </row>
     <row r="109">
@@ -3627,26 +4157,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
+          <t>Leucine</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.08316988855977478</v>
+        <v>3.845216646022494</v>
       </c>
       <c r="D109">
-        <v>0.447</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E109">
-        <v>0.9352250172307338</v>
+        <v>3.826832736963159e-05</v>
       </c>
       <c r="F109">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G109">
-        <v>0.3496924768680635</v>
+        <v>1.148741651280925</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I109">
-        <v>0.9999823780018686</v>
+        <v>6.366765969460831e-05</v>
       </c>
     </row>
     <row r="110">
@@ -3657,26 +4192,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Kynurenic Acid_[M+H-H2O]+</t>
+          <t>Cortisol</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.08014022775259996</v>
+        <v>3.837948973270295</v>
       </c>
       <c r="D110">
-        <v>0.617</v>
+        <v>0.0726</v>
       </c>
       <c r="E110">
-        <v>0.9620406105866113</v>
+        <v>4.249451461133851e-05</v>
       </c>
       <c r="F110">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G110">
-        <v>0.2097148359667583</v>
+        <v>1.139063379299906</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I110">
-        <v>0.9999823780018686</v>
+        <v>7.00786732186986e-05</v>
       </c>
     </row>
     <row r="111">
@@ -3687,26 +4227,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Gluconate</t>
+          <t>Saccharate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C111">
-        <v>0.0721452038071881</v>
+        <v>3.831943407920615</v>
       </c>
       <c r="D111">
-        <v>0.719</v>
+        <v>0.0289</v>
       </c>
       <c r="E111">
-        <v>0.9764807284561274</v>
+        <v>1.265457704963154e-06</v>
       </c>
       <c r="F111">
-        <v>0.9572112676056338</v>
+        <v>0.0659132530120482</v>
       </c>
       <c r="G111">
-        <v>0.1432711096171174</v>
+        <v>1.539102157243452</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I111">
-        <v>0.9999823780018686</v>
+        <v>2.673101668910932e-06</v>
       </c>
     </row>
     <row r="112">
@@ -3717,26 +4262,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5,8-Tetradecandienoylcarnitine</t>
+          <t>Myristic Acid_iso2</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.06855382598501983</v>
+        <v>3.821868742107755</v>
       </c>
       <c r="D112">
-        <v>0.597</v>
+        <v>0.167</v>
       </c>
       <c r="E112">
-        <v>0.9652552741380293</v>
+        <v>0.00106985366141399</v>
       </c>
       <c r="F112">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G112">
-        <v>0.2240256688706309</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I112">
-        <v>0.9999823780018686</v>
+        <v>0.001359003299633987</v>
       </c>
     </row>
     <row r="113">
@@ -3747,26 +4297,31 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Urate_iso2</t>
+          <t>6-Carboxyhexanoate</t>
         </is>
       </c>
       <c r="C113">
-        <v>0.06310963270476301</v>
+        <v>3.817899698561683</v>
       </c>
       <c r="D113">
-        <v>0.581</v>
+        <v>0.0183</v>
       </c>
       <c r="E113">
-        <v>0.9663117097216088</v>
+        <v>2.323873798013686e-07</v>
       </c>
       <c r="F113">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G113">
-        <v>0.2358238676096693</v>
+        <v>1.73754891026957</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I113">
-        <v>0.9999823780018686</v>
+        <v>5.903895594953688e-07</v>
       </c>
     </row>
     <row r="114">
@@ -3777,26 +4332,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1-Methyladenosine</t>
+          <t>3-Methylglutaconate</t>
         </is>
       </c>
       <c r="C114">
-        <v>0.05141517548818646</v>
+        <v>3.792927638083499</v>
       </c>
       <c r="D114">
-        <v>0.731</v>
+        <v>0.0281</v>
       </c>
       <c r="E114">
-        <v>0.9840185557643195</v>
+        <v>1.306337295478758e-06</v>
       </c>
       <c r="F114">
-        <v>0.9584313725490197</v>
+        <v>0.0659132530120482</v>
       </c>
       <c r="G114">
-        <v>0.1360826230421396</v>
+        <v>1.55129368009492</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I114">
-        <v>0.9999823780018686</v>
+        <v>2.72879346166674e-06</v>
       </c>
     </row>
     <row r="115">
@@ -3807,26 +4367,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso1</t>
+          <t>Cystine</t>
         </is>
       </c>
       <c r="C115">
-        <v>0.04872912198408155</v>
+        <v>3.766632302984195</v>
       </c>
       <c r="D115">
-        <v>0.62</v>
+        <v>0.0255</v>
       </c>
       <c r="E115">
-        <v>0.9769749520756383</v>
+        <v>9.95457607952895e-07</v>
       </c>
       <c r="F115">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G115">
-        <v>0.2076083105017461</v>
+        <v>1.593459819566045</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I115">
-        <v>0.9999823780018686</v>
+        <v>2.151103796495911e-06</v>
       </c>
     </row>
     <row r="116">
@@ -3837,26 +4402,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso2</t>
+          <t>Tauroursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C116">
-        <v>0.04749103441561804</v>
+        <v>3.757816770742662</v>
       </c>
       <c r="D116">
-        <v>0.84</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="E116">
-        <v>0.9917539639120007</v>
+        <v>5.189272308602563e-05</v>
       </c>
       <c r="F116">
-        <v>0.9864337349397589</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G116">
-        <v>0.07572071393811836</v>
+        <v>1.140261433802853</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I116">
-        <v>0.9999823780018686</v>
+        <v>8.479072947898615e-05</v>
       </c>
     </row>
     <row r="117">
@@ -3867,26 +4437,31 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cortisol</t>
+          <t>Oxoglutarate</t>
         </is>
       </c>
       <c r="C117">
-        <v>0.0407665551244447</v>
+        <v>3.746804275980886</v>
       </c>
       <c r="D117">
-        <v>0.914</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E117">
-        <v>0.9963407907367222</v>
+        <v>5.231768414660847e-05</v>
       </c>
       <c r="F117">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G117">
-        <v>0.03905380426616856</v>
+        <v>1.142667503568731</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I117">
-        <v>0.9999823780018686</v>
+        <v>8.479072947898615e-05</v>
       </c>
     </row>
     <row r="118">
@@ -3897,26 +4472,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proline</t>
+          <t>1-Hydroxy-2-Naphthoate</t>
         </is>
       </c>
       <c r="C118">
-        <v>0.03994773114216207</v>
+        <v>3.733778425413548</v>
       </c>
       <c r="D118">
-        <v>0.9320000000000001</v>
+        <v>0.0317</v>
       </c>
       <c r="E118">
-        <v>0.9971907357186262</v>
+        <v>2.530972417767938e-06</v>
       </c>
       <c r="F118">
-        <v>0.993</v>
+        <v>0.06929767441860465</v>
       </c>
       <c r="G118">
-        <v>0.03058408764601861</v>
+        <v>1.498940737782249</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I118">
-        <v>0.9999823780018686</v>
+        <v>5.008661205688131e-06</v>
       </c>
     </row>
     <row r="119">
@@ -3927,26 +4507,31 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Phenylpyruvate</t>
+          <t>N-Acetylneuraminate_iso2</t>
         </is>
       </c>
       <c r="C119">
-        <v>0.03921237247684062</v>
+        <v>3.695230464287302</v>
       </c>
       <c r="D119">
-        <v>0.711</v>
+        <v>0.0275</v>
       </c>
       <c r="E119">
-        <v>0.9867143757233661</v>
+        <v>1.709915407527205e-06</v>
       </c>
       <c r="F119">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G119">
-        <v>0.1481303992702337</v>
+        <v>1.560667306169737</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I119">
-        <v>0.9999823780018686</v>
+        <v>3.532572490275985e-06</v>
       </c>
     </row>
     <row r="120">
@@ -3957,26 +4542,31 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Kynurenine</t>
+          <t>Glycocholic Acid_iso1</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.0368953718423889</v>
+        <v>3.663158320719868</v>
       </c>
       <c r="D120">
-        <v>0.762</v>
+        <v>0.0742</v>
       </c>
       <c r="E120">
-        <v>0.9900216336545019</v>
+        <v>7.279652804310379e-05</v>
       </c>
       <c r="F120">
-        <v>0.9584313725490197</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G120">
-        <v>0.1180450286603995</v>
+        <v>1.129596094720973</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I120">
-        <v>0.9999823780018686</v>
+        <v>0.000115980909085623</v>
       </c>
     </row>
     <row r="121">
@@ -3987,26 +4577,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
+          <t>Urate_iso1</t>
         </is>
       </c>
       <c r="C121">
-        <v>0.03616956296270346</v>
+        <v>3.623027240404375</v>
       </c>
       <c r="D121">
-        <v>0.654</v>
+        <v>0.169</v>
       </c>
       <c r="E121">
-        <v>0.9847580229677214</v>
+        <v>0.001594455849538397</v>
       </c>
       <c r="F121">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G121">
-        <v>0.1844222516757327</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I121">
-        <v>0.9999823780018686</v>
+        <v>0.00199838466475479</v>
       </c>
     </row>
     <row r="122">
@@ -4017,26 +4612,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Histidine</t>
+          <t>Indoxyl Sulfate_iso2</t>
         </is>
       </c>
       <c r="C122">
-        <v>0.03178290162371737</v>
+        <v>3.603206143723334</v>
       </c>
       <c r="D122">
-        <v>0.893</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="E122">
-        <v>0.9964096312443004</v>
+        <v>6.720978921751962e-05</v>
       </c>
       <c r="F122">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G122">
-        <v>0.04914854111145357</v>
+        <v>1.158015195409886</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I122">
-        <v>0.9999823780018686</v>
+        <v>0.0001079952168623392</v>
       </c>
     </row>
     <row r="123">
@@ -4047,26 +4647,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
+          <t>2,6-Dihydroxypyridine</t>
         </is>
       </c>
       <c r="C123">
-        <v>0.03115727713970338</v>
+        <v>3.566926422543458</v>
       </c>
       <c r="D123">
-        <v>0.918</v>
+        <v>0.0694</v>
       </c>
       <c r="E123">
-        <v>0.9973377991194609</v>
+        <v>7.365707709720858e-05</v>
       </c>
       <c r="F123">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G123">
-        <v>0.03715731879875755</v>
+        <v>1.158640529545145</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I123">
-        <v>0.9999823780018686</v>
+        <v>0.000116365802472901</v>
       </c>
     </row>
     <row r="124">
@@ -4077,26 +4682,31 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
+          <t>Gluconate</t>
         </is>
       </c>
       <c r="C124">
-        <v>0.02511877357951185</v>
+        <v>3.54293518765732</v>
       </c>
       <c r="D124">
-        <v>0.915</v>
+        <v>0.0712</v>
       </c>
       <c r="E124">
-        <v>0.9977711564249065</v>
+        <v>8.598268264684167e-05</v>
       </c>
       <c r="F124">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G124">
-        <v>0.0385789059335517</v>
+        <v>1.147520006363144</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I124">
-        <v>0.9999823780018686</v>
+        <v>0.0001335929284099689</v>
       </c>
     </row>
     <row r="125">
@@ -4107,26 +4717,31 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Creatinine</t>
+          <t>2-Hydroxyphenylacetate_iso3</t>
         </is>
       </c>
       <c r="C125">
-        <v>0.02272873015886347</v>
+        <v>3.524704414791134</v>
       </c>
       <c r="D125">
-        <v>0.947</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="E125">
-        <v>0.9987630457069777</v>
+        <v>8.119011379696492e-05</v>
       </c>
       <c r="F125">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G125">
-        <v>0.0236500209967266</v>
+        <v>1.160521952625802</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I125">
-        <v>0.9999823780018686</v>
+        <v>0.0001271978449485784</v>
       </c>
     </row>
     <row r="126">
@@ -4137,26 +4752,31 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso2</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
         </is>
       </c>
       <c r="C126">
-        <v>0.01064675018389996</v>
+        <v>3.51559889524173</v>
       </c>
       <c r="D126">
-        <v>0.985</v>
+        <v>0.0771</v>
       </c>
       <c r="E126">
-        <v>0.9998391018193674</v>
+        <v>0.0001222727277884084</v>
       </c>
       <c r="F126">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G126">
-        <v>0.006563769502388274</v>
+        <v>1.112945621949043</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I126">
-        <v>0.9999823780018686</v>
+        <v>0.0001850621445687226</v>
       </c>
     </row>
     <row r="127">
@@ -4167,26 +4787,31 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Stearate</t>
+          <t>Eicosenoic Acid</t>
         </is>
       </c>
       <c r="C127">
-        <v>0.009078799779352267</v>
+        <v>3.494084649713754</v>
       </c>
       <c r="D127">
-        <v>0.988</v>
+        <v>0.167</v>
       </c>
       <c r="E127">
-        <v>0.999890401458513</v>
+        <v>0.001923559184690867</v>
       </c>
       <c r="F127">
-        <v>0.993</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G127">
-        <v>0.005243055412371883</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I127">
-        <v>0.9999823780018686</v>
+        <v>0.002379138991591336</v>
       </c>
     </row>
     <row r="128">
@@ -4197,26 +4822,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
+          <t>Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C128">
-        <v>0.008888717757937509</v>
+        <v>3.478768707703166</v>
       </c>
       <c r="D128">
-        <v>0.987</v>
+        <v>0.0237</v>
       </c>
       <c r="E128">
-        <v>0.9998836957627193</v>
+        <v>2.218837023781031e-06</v>
       </c>
       <c r="F128">
-        <v>0.993</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G128">
-        <v>0.005682847330363273</v>
+        <v>1.625251653989896</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I128">
-        <v>0.9999823780018686</v>
+        <v>4.437674047562062e-06</v>
       </c>
     </row>
     <row r="129">
@@ -4227,26 +4857,31 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>Kynurenic Acid</t>
         </is>
       </c>
       <c r="C129">
-        <v>0.008436878674881701</v>
+        <v>3.46872527928092</v>
       </c>
       <c r="D129">
-        <v>0.964</v>
+        <v>0.0712</v>
       </c>
       <c r="E129">
-        <v>0.9996907182495836</v>
+        <v>0.000104608830169077</v>
       </c>
       <c r="F129">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G129">
-        <v>0.01592296609716924</v>
+        <v>1.147520006363144</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I129">
-        <v>0.9999823780018686</v>
+        <v>0.0001612004923916924</v>
       </c>
     </row>
     <row r="130">
@@ -4257,26 +4892,31 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>5-Hydroxytryptophan</t>
+          <t>Succinate_iso1</t>
         </is>
       </c>
       <c r="C130">
-        <v>0.001447168496526118</v>
+        <v>3.3988920620225</v>
       </c>
       <c r="D130">
-        <v>0.985</v>
+        <v>0.068</v>
       </c>
       <c r="E130">
-        <v>0.9999781282586835</v>
+        <v>0.0001076028590642443</v>
       </c>
       <c r="F130">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G130">
-        <v>0.006563769502388274</v>
+        <v>1.167491087293764</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I130">
-        <v>0.9999823780018686</v>
+        <v>0.0001644661585697393</v>
       </c>
     </row>
     <row r="131">
@@ -4287,26 +4927,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nervonate</t>
+          <t>Biliverdin_[M+Na]+</t>
         </is>
       </c>
       <c r="C131">
-        <v>-0.002508629093379104</v>
+        <v>3.393904108329392</v>
       </c>
       <c r="D131">
-        <v>0.993</v>
+        <v>0.0209</v>
       </c>
       <c r="E131">
-        <v>0.9999823780018686</v>
+        <v>1.989470844746874e-06</v>
       </c>
       <c r="F131">
-        <v>0.993</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G131">
-        <v>0.003050751504618827</v>
+        <v>1.679853713888946</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I131">
-        <v>0.9999823780018686</v>
+        <v>4.021726008735616e-06</v>
       </c>
     </row>
     <row r="132">
@@ -4317,26 +4962,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
+          <t>Sebacate</t>
         </is>
       </c>
       <c r="C132">
-        <v>-0.005973157670323188</v>
+        <v>3.366108584868675</v>
       </c>
       <c r="D132">
-        <v>0.962</v>
+        <v>0.0701</v>
       </c>
       <c r="E132">
-        <v>0.9997686216962764</v>
+        <v>0.0001301851689145243</v>
       </c>
       <c r="F132">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G132">
-        <v>0.01682492796218706</v>
+        <v>1.154281982033341</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I132">
-        <v>0.9999823780018686</v>
+        <v>0.0001942445377454808</v>
       </c>
     </row>
     <row r="133">
@@ -4347,26 +4997,31 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Saccharate_[M-H2O-H]-</t>
+          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
         </is>
       </c>
       <c r="C133">
-        <v>-0.006462867414997849</v>
+        <v>3.339688977652447</v>
       </c>
       <c r="D133">
-        <v>0.983</v>
+        <v>0.166</v>
       </c>
       <c r="E133">
-        <v>0.9998891927883456</v>
+        <v>0.002485441684791125</v>
       </c>
       <c r="F133">
-        <v>0.993</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G133">
-        <v>0.007446482167864384</v>
+        <v>0.7798919119599449</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I133">
-        <v>0.9999823780018686</v>
+        <v>0.003054006776083212</v>
       </c>
     </row>
     <row r="134">
@@ -4377,26 +5032,31 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2,6-Dihydroxypyridine</t>
+          <t>Adrenic Acid (22:4 N?6)</t>
         </is>
       </c>
       <c r="C134">
-        <v>-0.01330302429601154</v>
+        <v>3.269939966174776</v>
       </c>
       <c r="D134">
-        <v>0.966</v>
+        <v>0.166</v>
       </c>
       <c r="E134">
-        <v>0.9995399350321532</v>
+        <v>0.002817087053783041</v>
       </c>
       <c r="F134">
-        <v>0.993</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G134">
-        <v>0.01502287358450667</v>
+        <v>0.7798919119599449</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I134">
-        <v>0.9999823780018686</v>
+        <v>0.003416853974911043</v>
       </c>
     </row>
     <row r="135">
@@ -4407,26 +5067,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
+          <t>3-Hydroxyglutaric Acid_iso2</t>
         </is>
       </c>
       <c r="C135">
-        <v>-0.0134408246759213</v>
+        <v>3.223575086528568</v>
       </c>
       <c r="D135">
-        <v>0.953</v>
+        <v>0.0689</v>
       </c>
       <c r="E135">
-        <v>0.9993531629447278</v>
+        <v>0.0001798508222697631</v>
       </c>
       <c r="F135">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G135">
-        <v>0.02090709936167361</v>
+        <v>1.161780778092374</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I135">
-        <v>0.9999823780018686</v>
+        <v>0.0002641558952087145</v>
       </c>
     </row>
     <row r="136">
@@ -4437,26 +5102,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Aspartate</t>
+          <t>Myristic Acid_iso1</t>
         </is>
       </c>
       <c r="C136">
-        <v>-0.01349403991485947</v>
+        <v>3.180324145975336</v>
       </c>
       <c r="D136">
-        <v>0.952</v>
+        <v>0.164</v>
       </c>
       <c r="E136">
-        <v>0.9993364451314372</v>
+        <v>0.003183823115955681</v>
       </c>
       <c r="F136">
-        <v>0.993</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G136">
-        <v>0.02136305161552567</v>
+        <v>0.7851561519523022</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I136">
-        <v>0.9999823780018686</v>
+        <v>0.003836915037177359</v>
       </c>
     </row>
     <row r="137">
@@ -4467,26 +5137,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Thyroxine</t>
+          <t>Kynurenic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C137">
-        <v>-0.01425777675948283</v>
+        <v>3.149923879339321</v>
       </c>
       <c r="D137">
-        <v>0.929</v>
+        <v>0.0105</v>
       </c>
       <c r="E137">
-        <v>0.9989505151659912</v>
+        <v>5.846513010165875e-07</v>
       </c>
       <c r="F137">
-        <v>0.993</v>
+        <v>0.05483333333333334</v>
       </c>
       <c r="G137">
-        <v>0.03198428600635821</v>
+        <v>1.978810700930062</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I137">
-        <v>0.9999823780018686</v>
+        <v>1.324270416760463e-06</v>
       </c>
     </row>
     <row r="138">
@@ -4497,26 +5172,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3-Methyl-2-Oxopentanoic Acid</t>
+          <t>Oxoproline</t>
         </is>
       </c>
       <c r="C138">
-        <v>-0.02162376502722544</v>
+        <v>3.117939051525312</v>
       </c>
       <c r="D138">
-        <v>0.856</v>
+        <v>0.0275</v>
       </c>
       <c r="E138">
-        <v>0.9966434767567983</v>
+        <v>1.361239239325591e-05</v>
       </c>
       <c r="F138">
-        <v>0.9864337349397589</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G138">
-        <v>0.06752623532284678</v>
+        <v>1.560667306169737</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I138">
-        <v>0.9999823780018686</v>
+        <v>2.484592009642826e-05</v>
       </c>
     </row>
     <row r="139">
@@ -4527,26 +5207,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Oxoglutarate</t>
+          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
         </is>
       </c>
       <c r="C139">
-        <v>-0.0277156148945178</v>
+        <v>3.102735598293492</v>
       </c>
       <c r="D139">
-        <v>0.871</v>
+        <v>0.083</v>
       </c>
       <c r="E139">
-        <v>0.99617942195751</v>
+        <v>0.000442777066090055</v>
       </c>
       <c r="F139">
-        <v>0.9864337349397589</v>
+        <v>0.1122589928057554</v>
       </c>
       <c r="G139">
-        <v>0.0599818449923368</v>
+        <v>1.080921907623926</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I139">
-        <v>0.9999823780018686</v>
+        <v>0.0006258803640972207</v>
       </c>
     </row>
     <row r="140">
@@ -4557,26 +5242,31 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso1</t>
+          <t>Benzoate</t>
         </is>
       </c>
       <c r="C140">
-        <v>-0.02932020069854873</v>
+        <v>3.088657780793387</v>
       </c>
       <c r="D140">
-        <v>0.9389999999999999</v>
+        <v>0.0873</v>
       </c>
       <c r="E140">
-        <v>0.9981562941562887</v>
+        <v>0.0005359884165268738</v>
       </c>
       <c r="F140">
-        <v>0.993</v>
+        <v>0.1155802816901409</v>
       </c>
       <c r="G140">
-        <v>0.0273344077338891</v>
+        <v>1.05898575629443</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I140">
-        <v>0.9999823780018686</v>
+        <v>0.0007519837485600916</v>
       </c>
     </row>
     <row r="141">
@@ -4587,26 +5277,31 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cystine</t>
+          <t>Deoxycholate</t>
         </is>
       </c>
       <c r="C141">
-        <v>-0.03278046985426786</v>
+        <v>3.080679068323123</v>
       </c>
       <c r="D141">
-        <v>0.831</v>
+        <v>0.0911</v>
       </c>
       <c r="E141">
-        <v>0.9939498758058908</v>
+        <v>0.0006231750295668195</v>
       </c>
       <c r="F141">
-        <v>0.9864337349397589</v>
+        <v>0.1197678321678322</v>
       </c>
       <c r="G141">
-        <v>0.08039897621588903</v>
+        <v>1.040481623027002</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I141">
-        <v>0.9999823780018686</v>
+        <v>0.0008344888494192821</v>
       </c>
     </row>
     <row r="142">
@@ -4617,26 +5312,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
+          <t>Creatinine</t>
         </is>
       </c>
       <c r="C142">
-        <v>-0.03522315937299335</v>
+        <v>3.061367046467312</v>
       </c>
       <c r="D142">
-        <v>0.859</v>
+        <v>0.0772</v>
       </c>
       <c r="E142">
-        <v>0.99466086444632</v>
+        <v>0.0003931771408390845</v>
       </c>
       <c r="F142">
-        <v>0.9864337349397589</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G142">
-        <v>0.0660068361687577</v>
+        <v>1.112382699664264</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I142">
-        <v>0.9999823780018686</v>
+        <v>0.0005599795642253628</v>
       </c>
     </row>
     <row r="143">
@@ -4647,26 +5347,31 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Trans-Aconitate</t>
+          <t>Glycochenodeoxycholate</t>
         </is>
       </c>
       <c r="C143">
-        <v>-0.04141604209462132</v>
+        <v>3.051629538390423</v>
       </c>
       <c r="D143">
-        <v>0.871</v>
+        <v>0.168</v>
       </c>
       <c r="E143">
-        <v>0.9942962223246882</v>
+        <v>0.004324450407346328</v>
       </c>
       <c r="F143">
-        <v>0.9864337349397589</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G143">
-        <v>0.0599818449923368</v>
+        <v>0.7746907182741372</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I143">
-        <v>0.9999823780018686</v>
+        <v>0.0051783227807714</v>
       </c>
     </row>
     <row r="144">
@@ -4677,26 +5382,31 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso1</t>
+          <t>1-Methyladenosine</t>
         </is>
       </c>
       <c r="C144">
-        <v>-0.04322467273850573</v>
+        <v>3.036315113416858</v>
       </c>
       <c r="D144">
-        <v>0.855</v>
+        <v>0.067</v>
       </c>
       <c r="E144">
-        <v>0.9932515639875575</v>
+        <v>0.0002726422652371824</v>
       </c>
       <c r="F144">
-        <v>0.9864337349397589</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G144">
-        <v>0.06803388527182737</v>
+        <v>1.173925197299174</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I144">
-        <v>0.9999823780018686</v>
+        <v>0.0003912728691953457</v>
       </c>
     </row>
     <row r="145">
@@ -4707,26 +5417,31 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso1</t>
+          <t>Glycocholate</t>
         </is>
       </c>
       <c r="C145">
-        <v>-0.04429330770437614</v>
+        <v>2.940945150823667</v>
       </c>
       <c r="D145">
-        <v>0.8149999999999999</v>
+        <v>0.169</v>
       </c>
       <c r="E145">
-        <v>0.990979970342073</v>
+        <v>0.005361139994731693</v>
       </c>
       <c r="F145">
-        <v>0.9819108280254777</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G145">
-        <v>0.08884239126002341</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I145">
-        <v>0.9999823780018686</v>
+        <v>0.006330047787044567</v>
       </c>
     </row>
     <row r="146">
@@ -4737,26 +5452,31 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
+          <t>Glutamate Acid</t>
         </is>
       </c>
       <c r="C146">
-        <v>-0.04462239846237936</v>
+        <v>2.889400882033639</v>
       </c>
       <c r="D146">
-        <v>0.861</v>
+        <v>0.164</v>
       </c>
       <c r="E146">
-        <v>0.9933440270557732</v>
+        <v>0.005387274712378354</v>
       </c>
       <c r="F146">
-        <v>0.9864337349397589</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G146">
-        <v>0.06499684854634524</v>
+        <v>0.7851561519523022</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I146">
-        <v>0.9999823780018686</v>
+        <v>0.006330047787044567</v>
       </c>
     </row>
     <row r="147">
@@ -4767,26 +5487,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sebacate</t>
+          <t>Cholate</t>
         </is>
       </c>
       <c r="C147">
-        <v>-0.05107875926350532</v>
+        <v>2.870154255745498</v>
       </c>
       <c r="D147">
-        <v>0.723</v>
+        <v>0.165</v>
       </c>
       <c r="E147">
-        <v>0.9835692870635044</v>
+        <v>0.00567620683485602</v>
       </c>
       <c r="F147">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G147">
-        <v>0.1408617027054692</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I147">
-        <v>0.9999823780018686</v>
+        <v>0.006587202993536616</v>
       </c>
     </row>
     <row r="148">
@@ -4797,26 +5522,31 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Citrate_iso1</t>
+          <t>Histidine</t>
         </is>
       </c>
       <c r="C148">
-        <v>-0.05198450634543674</v>
+        <v>2.867650424302059</v>
       </c>
       <c r="D148">
-        <v>0.89</v>
+        <v>0.0755</v>
       </c>
       <c r="E148">
-        <v>0.9939603594889064</v>
+        <v>0.0006058206878605698</v>
       </c>
       <c r="F148">
-        <v>0.993</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G148">
-        <v>0.05060999335508721</v>
+        <v>1.122053048370812</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I148">
-        <v>0.9999823780018686</v>
+        <v>0.000825320937085414</v>
       </c>
     </row>
     <row r="149">
@@ -4827,26 +5557,31 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Taurohyodeoxycholic Acid</t>
+          <t>Chenodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C149">
-        <v>-0.05570442511117037</v>
+        <v>2.865014619972398</v>
       </c>
       <c r="D149">
-        <v>0.944</v>
+        <v>0.164</v>
       </c>
       <c r="E149">
-        <v>0.9967949505715902</v>
+        <v>0.005630100479382434</v>
       </c>
       <c r="F149">
-        <v>0.993</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G149">
-        <v>0.02502800570193105</v>
+        <v>0.7851561519523022</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I149">
-        <v>0.9999823780018686</v>
+        <v>0.006574278820645327</v>
       </c>
     </row>
     <row r="150">
@@ -4857,26 +5592,31 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso2</t>
+          <t>Trans-Aconitate</t>
         </is>
       </c>
       <c r="C150">
-        <v>-0.0595518201612168</v>
+        <v>2.851514497467927</v>
       </c>
       <c r="D150">
-        <v>0.773</v>
+        <v>0.157</v>
       </c>
       <c r="E150">
-        <v>0.9847837764829299</v>
+        <v>0.005094437064381874</v>
       </c>
       <c r="F150">
-        <v>0.9584313725490197</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G150">
-        <v>0.1118205060816751</v>
+        <v>0.8041003475907662</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I150">
-        <v>0.9999823780018686</v>
+        <v>0.006061735241163243</v>
       </c>
     </row>
     <row r="151">
@@ -4887,26 +5627,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Succinate_iso1</t>
+          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C151">
-        <v>-0.06056907794036111</v>
+        <v>2.817179892798029</v>
       </c>
       <c r="D151">
-        <v>0.837</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E151">
-        <v>0.9892807359619364</v>
+        <v>0.0005897414471250633</v>
       </c>
       <c r="F151">
-        <v>0.9864337349397589</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G151">
-        <v>0.07727454200674003</v>
+        <v>1.146301788223826</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I151">
-        <v>0.9999823780018686</v>
+        <v>0.0008092802340110357</v>
       </c>
     </row>
     <row r="152">
@@ -4917,26 +5662,31 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Urate_iso1</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="C152">
-        <v>-0.06175267086738585</v>
+        <v>2.788325020545697</v>
       </c>
       <c r="D152">
-        <v>0.463</v>
+        <v>0.025</v>
       </c>
       <c r="E152">
-        <v>0.9535615546177443</v>
+        <v>3.411426680877815e-05</v>
       </c>
       <c r="F152">
-        <v>0.9572112676056338</v>
+        <v>0.06544303797468354</v>
       </c>
       <c r="G152">
-        <v>0.3344190089820469</v>
+        <v>1.602059991327962</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I152">
-        <v>0.9999823780018686</v>
+        <v>5.777911855901165e-05</v>
       </c>
     </row>
     <row r="153">
@@ -4947,26 +5697,31 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Itaconate_iso2</t>
+          <t>Indole-3-Carboxaldehyde_iso1</t>
         </is>
       </c>
       <c r="C153">
-        <v>-0.07820783688734322</v>
+        <v>2.763243144658798</v>
       </c>
       <c r="D153">
-        <v>0.78</v>
+        <v>0.0675</v>
       </c>
       <c r="E153">
-        <v>0.9807559516323997</v>
+        <v>0.0005822127015829318</v>
       </c>
       <c r="F153">
-        <v>0.9584313725490197</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G153">
-        <v>0.1079053973095196</v>
+        <v>1.170696227168975</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I153">
-        <v>0.9999823780018686</v>
+        <v>0.0008060457740912211</v>
       </c>
     </row>
     <row r="154">
@@ -4977,26 +5732,31 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Caffeate_iso2</t>
+          <t>Biliverdin_iso1</t>
         </is>
       </c>
       <c r="C154">
-        <v>-0.1012155370838608</v>
+        <v>2.762680155977118</v>
       </c>
       <c r="D154">
-        <v>0.588</v>
+        <v>0.0675</v>
       </c>
       <c r="E154">
-        <v>0.9476705883676257</v>
+        <v>0.0005830969429596067</v>
       </c>
       <c r="F154">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G154">
-        <v>0.2306226739238615</v>
+        <v>1.170696227168975</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I154">
-        <v>0.9999823780018686</v>
+        <v>0.0008060457740912211</v>
       </c>
     </row>
     <row r="155">
@@ -5007,26 +5767,31 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cysteine</t>
+          <t>Xanthine</t>
         </is>
       </c>
       <c r="C155">
-        <v>-0.1016916802469785</v>
+        <v>2.739585576390664</v>
       </c>
       <c r="D155">
-        <v>0.646</v>
+        <v>0.162</v>
       </c>
       <c r="E155">
-        <v>0.9565379959267459</v>
+        <v>0.006829654522504973</v>
       </c>
       <c r="F155">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G155">
-        <v>0.1897674820049159</v>
+        <v>0.790484985457369</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I155">
-        <v>0.9999823780018686</v>
+        <v>0.007877147547429048</v>
       </c>
     </row>
     <row r="156">
@@ -5037,26 +5802,31 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Methionine_iso1</t>
+          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C156">
-        <v>-0.1064231849585744</v>
+        <v>2.702014099881948</v>
       </c>
       <c r="D156">
-        <v>0.754</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="E156">
-        <v>0.9703970510095843</v>
+        <v>0.0007173504134427784</v>
       </c>
       <c r="F156">
-        <v>0.9584313725490197</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G156">
-        <v>0.1226286541302259</v>
+        <v>1.163675884293248</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I156">
-        <v>0.9999823780018686</v>
+        <v>0.000949731533290439</v>
       </c>
     </row>
     <row r="157">
@@ -5067,26 +5837,31 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone (Dhea)</t>
+          <t>Indole-3-Acetamide_[M+Na]+</t>
         </is>
       </c>
       <c r="C157">
-        <v>-0.1108738093264911</v>
+        <v>2.677311645546551</v>
       </c>
       <c r="D157">
-        <v>0.703</v>
+        <v>0.0636</v>
       </c>
       <c r="E157">
-        <v>0.9616817044830708</v>
+        <v>0.0006258666370644616</v>
       </c>
       <c r="F157">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G157">
-        <v>0.1530446749801761</v>
+        <v>1.196542884351586</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I157">
-        <v>0.9999823780018686</v>
+        <v>0.0008344888494192821</v>
       </c>
     </row>
     <row r="158">
@@ -5097,26 +5872,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3-Hydroxymyristic Acid</t>
+          <t>L-Arginine</t>
         </is>
       </c>
       <c r="C158">
-        <v>-0.1118858405392088</v>
+        <v>2.674555497954709</v>
       </c>
       <c r="D158">
-        <v>0.722</v>
+        <v>0.158</v>
       </c>
       <c r="E158">
-        <v>0.9642115188819532</v>
+        <v>0.00719057973022306</v>
       </c>
       <c r="F158">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G158">
-        <v>0.1414628024303609</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I158">
-        <v>0.9999823780018686</v>
+        <v>0.008242859690743507</v>
       </c>
     </row>
     <row r="159">
@@ -5127,26 +5907,31 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso1</t>
+          <t>2-Hydroxyphenylacetate_iso1</t>
         </is>
       </c>
       <c r="C159">
-        <v>-0.1185498414085496</v>
+        <v>2.663619714260784</v>
       </c>
       <c r="D159">
-        <v>0.365</v>
+        <v>0.0731</v>
       </c>
       <c r="E159">
-        <v>0.8873805154113618</v>
+        <v>0.0009416899342005243</v>
       </c>
       <c r="F159">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G159">
-        <v>0.4377071355435253</v>
+        <v>1.136082623042139</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I159">
-        <v>0.9999823780018686</v>
+        <v>0.001220949707791025</v>
       </c>
     </row>
     <row r="160">
@@ -5157,26 +5942,31 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso1</t>
+          <t>3-Hydroxyglutaric Acid_iso1</t>
         </is>
       </c>
       <c r="C160">
-        <v>-0.1226635986378617</v>
+        <v>2.656668046725784</v>
       </c>
       <c r="D160">
-        <v>0.62</v>
+        <v>0.0803</v>
       </c>
       <c r="E160">
-        <v>0.9430484759037584</v>
+        <v>0.001230815018964234</v>
       </c>
       <c r="F160">
-        <v>0.9572112676056338</v>
+        <v>0.1106043795620438</v>
       </c>
       <c r="G160">
-        <v>0.2076083105017461</v>
+        <v>1.095284454721319</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I160">
-        <v>0.9999823780018686</v>
+        <v>0.00155297465480051</v>
       </c>
     </row>
     <row r="161">
@@ -5187,26 +5977,31 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso1</t>
+          <t>Norleucine</t>
         </is>
       </c>
       <c r="C161">
-        <v>-0.1330555284492261</v>
+        <v>2.652312846553482</v>
       </c>
       <c r="D161">
-        <v>0.635</v>
+        <v>0.0735</v>
       </c>
       <c r="E161">
-        <v>0.9413647975822677</v>
+        <v>0.0009841002568385967</v>
       </c>
       <c r="F161">
-        <v>0.9572112676056338</v>
+        <v>0.1076474074074074</v>
       </c>
       <c r="G161">
-        <v>0.1972262747080243</v>
+        <v>1.133712660915805</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I161">
-        <v>0.9999823780018686</v>
+        <v>0.001258577199222151</v>
       </c>
     </row>
     <row r="162">
@@ -5221,22 +6016,27 @@
         </is>
       </c>
       <c r="C162">
-        <v>-0.1427497886761435</v>
+        <v>2.57507473936752</v>
       </c>
       <c r="D162">
-        <v>0.6899999999999999</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="E162">
-        <v>0.9484091641365817</v>
+        <v>0.001777186154983151</v>
       </c>
       <c r="F162">
-        <v>0.9572112676056338</v>
+        <v>0.114</v>
       </c>
       <c r="G162">
-        <v>0.1611509092627447</v>
+        <v>1.068033885271827</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I162">
-        <v>0.9999823780018686</v>
+        <v>0.002212655610177698</v>
       </c>
     </row>
     <row r="163">
@@ -5247,26 +6047,31 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso2</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
         </is>
       </c>
       <c r="C163">
-        <v>-0.1450581561951849</v>
+        <v>2.555212718034896</v>
       </c>
       <c r="D163">
-        <v>0.526</v>
+        <v>0.0295</v>
       </c>
       <c r="E163">
-        <v>0.9110174726307131</v>
+        <v>0.0001230466386760124</v>
       </c>
       <c r="F163">
-        <v>0.9572112676056338</v>
+        <v>0.06602380952380951</v>
       </c>
       <c r="G163">
-        <v>0.2790142558462609</v>
+        <v>1.530177984021837</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I163">
-        <v>0.9999823780018686</v>
+        <v>0.0001850621445687226</v>
       </c>
     </row>
     <row r="164">
@@ -5277,26 +6082,31 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Citrate_iso2</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
         </is>
       </c>
       <c r="C164">
-        <v>-0.1495120717427366</v>
+        <v>2.546715875358812</v>
       </c>
       <c r="D164">
-        <v>0.62</v>
+        <v>0.0354</v>
       </c>
       <c r="E164">
-        <v>0.9310222313713281</v>
+        <v>0.0002017082085716945</v>
       </c>
       <c r="F164">
-        <v>0.9572112676056338</v>
+        <v>0.07477752808988763</v>
       </c>
       <c r="G164">
-        <v>0.2076083105017461</v>
+        <v>1.450996737974212</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I164">
-        <v>0.9999823780018686</v>
+        <v>0.000293962350476578</v>
       </c>
     </row>
     <row r="165">
@@ -5307,26 +6117,31 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso1</t>
+          <t>Nervonate</t>
         </is>
       </c>
       <c r="C165">
-        <v>-0.1580946440995184</v>
+        <v>2.495121227942927</v>
       </c>
       <c r="D165">
-        <v>0.703</v>
+        <v>0.161</v>
       </c>
       <c r="E165">
-        <v>0.9458112089041812</v>
+        <v>0.0104938392177156</v>
       </c>
       <c r="F165">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G165">
-        <v>0.1530446749801761</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I165">
-        <v>0.9999823780018686</v>
+        <v>0.01195661680563959</v>
       </c>
     </row>
     <row r="166">
@@ -5337,26 +6152,31 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Xanthine</t>
+          <t>Glutamine_iso1</t>
         </is>
       </c>
       <c r="C166">
-        <v>-0.1651393077035426</v>
+        <v>2.476052725546942</v>
       </c>
       <c r="D166">
-        <v>0.694</v>
+        <v>0.0919</v>
       </c>
       <c r="E166">
-        <v>0.9414607370264259</v>
+        <v>0.002710906547108882</v>
       </c>
       <c r="F166">
-        <v>0.9572112676056338</v>
+        <v>0.1199805555555556</v>
       </c>
       <c r="G166">
-        <v>0.1586405295451451</v>
+        <v>1.036684488613889</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I166">
-        <v>0.9999823780018686</v>
+        <v>0.003309418382184869</v>
       </c>
     </row>
     <row r="167">
@@ -5367,26 +6187,31 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Glutarate</t>
+          <t>2-Hydroxyoctanoic Acid_iso2</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.1654494812621239</v>
+        <v>2.438120961641381</v>
       </c>
       <c r="D167">
-        <v>0.479</v>
+        <v>0.162</v>
       </c>
       <c r="E167">
-        <v>0.8853432418689371</v>
+        <v>0.01182230030985985</v>
       </c>
       <c r="F167">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G167">
-        <v>0.3196644865854368</v>
+        <v>0.790484985457369</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I167">
-        <v>0.9999823780018686</v>
+        <v>0.01330893687577037</v>
       </c>
     </row>
     <row r="168">
@@ -5397,26 +6222,31 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso2</t>
+          <t>2-Hydroxyoctanoic Acid_iso1</t>
         </is>
       </c>
       <c r="C168">
-        <v>-0.1690771336129363</v>
+        <v>2.394954411490376</v>
       </c>
       <c r="D168">
-        <v>0.0854</v>
+        <v>0.156</v>
       </c>
       <c r="E168">
-        <v>0.6596809754435625</v>
+        <v>0.01168342559965532</v>
       </c>
       <c r="F168">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G168">
-        <v>1.068542129310995</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I168">
-        <v>0.9999823780018686</v>
+        <v>0.01323183140201928</v>
       </c>
     </row>
     <row r="169">
@@ -5427,26 +6257,31 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Deoxycholate</t>
+          <t>Adipate_iso2</t>
         </is>
       </c>
       <c r="C169">
-        <v>-0.1736784582566761</v>
+        <v>2.310225346337561</v>
       </c>
       <c r="D169">
-        <v>0.487</v>
+        <v>0.158</v>
       </c>
       <c r="E169">
-        <v>0.88253210195267</v>
+        <v>0.0140837170472439</v>
       </c>
       <c r="F169">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G169">
-        <v>0.3124710387853657</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I169">
-        <v>0.9999823780018686</v>
+        <v>0.01557493414636384</v>
       </c>
     </row>
     <row r="170">
@@ -5457,26 +6292,31 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Biliverdin_iso2</t>
+          <t>5,8-Tetradecandienoylcarnitine</t>
         </is>
       </c>
       <c r="C170">
-        <v>-0.174550544496536</v>
+        <v>2.234917071786322</v>
       </c>
       <c r="D170">
-        <v>0.202</v>
+        <v>0.148</v>
       </c>
       <c r="E170">
-        <v>0.7563950939430588</v>
+        <v>0.0139831089864398</v>
       </c>
       <c r="F170">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G170">
-        <v>0.6946486305533762</v>
+        <v>0.8297382846050426</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I170">
-        <v>0.9999823780018686</v>
+        <v>0.01555517449379101</v>
       </c>
     </row>
     <row r="171">
@@ -5487,26 +6327,31 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso2</t>
+          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
         </is>
       </c>
       <c r="C171">
-        <v>-0.1789487921342857</v>
+        <v>2.220940313727734</v>
       </c>
       <c r="D171">
-        <v>0.339</v>
+        <v>0.157</v>
       </c>
       <c r="E171">
-        <v>0.8240049174238028</v>
+        <v>0.01637348482943343</v>
       </c>
       <c r="F171">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G171">
-        <v>0.4698003017969178</v>
+        <v>0.8041003475907662</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I171">
-        <v>0.9999823780018686</v>
+        <v>0.01800125817504962</v>
       </c>
     </row>
     <row r="172">
@@ -5517,26 +6362,31 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Testosterone</t>
+          <t>3-Hydroxymyristic Acid</t>
         </is>
       </c>
       <c r="C172">
-        <v>-0.1800110357683099</v>
+        <v>2.217828436682708</v>
       </c>
       <c r="D172">
-        <v>0.619</v>
+        <v>0.161</v>
       </c>
       <c r="E172">
-        <v>0.9172801975657761</v>
+        <v>0.01741309112001907</v>
       </c>
       <c r="F172">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G172">
-        <v>0.208309350979882</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I172">
-        <v>0.9999823780018686</v>
+        <v>0.01892289670846002</v>
       </c>
     </row>
     <row r="173">
@@ -5547,26 +6397,31 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Glycodeoxycholic acid</t>
+          <t>Dehydroepiandrosterone (Dhea)</t>
         </is>
       </c>
       <c r="C173">
-        <v>-0.2120326914312712</v>
+        <v>2.188790261690552</v>
       </c>
       <c r="D173">
-        <v>0.762</v>
+        <v>0.156</v>
       </c>
       <c r="E173">
-        <v>0.9439969581365162</v>
+        <v>0.0171363758326977</v>
       </c>
       <c r="F173">
-        <v>0.9584313725490197</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G173">
-        <v>0.1180450286603995</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I173">
-        <v>0.9999823780018686</v>
+        <v>0.01873045730550679</v>
       </c>
     </row>
     <row r="174">
@@ -5577,26 +6432,31 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso1</t>
+          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
         </is>
       </c>
       <c r="C174">
-        <v>-0.2445560745287226</v>
+        <v>2.169528168140308</v>
       </c>
       <c r="D174">
-        <v>0.576</v>
+        <v>0.157</v>
       </c>
       <c r="E174">
-        <v>0.873795619139184</v>
+        <v>0.01800867024773146</v>
       </c>
       <c r="F174">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G174">
-        <v>0.239577516576788</v>
+        <v>0.8041003475907662</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I174">
-        <v>0.9999823780018686</v>
+        <v>0.01945764371593973</v>
       </c>
     </row>
     <row r="175">
@@ -5607,26 +6467,31 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3-Me-Glutarylcarnitine</t>
+          <t>Glycoursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C175">
-        <v>-0.2457652964179812</v>
+        <v>2.161734578992491</v>
       </c>
       <c r="D175">
-        <v>0.309</v>
+        <v>0.167</v>
       </c>
       <c r="E175">
-        <v>0.749289237336036</v>
+        <v>0.02087946267149357</v>
       </c>
       <c r="F175">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G175">
-        <v>0.5100415205751654</v>
+        <v>0.7772835288524167</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I175">
-        <v>0.9999823780018686</v>
+        <v>0.02243050846994737</v>
       </c>
     </row>
     <row r="176">
@@ -5637,26 +6502,31 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Adipate_iso2</t>
+          <t>Proline</t>
         </is>
       </c>
       <c r="C176">
-        <v>-0.3059908634206113</v>
+        <v>2.09226532943587</v>
       </c>
       <c r="D176">
-        <v>0.472</v>
+        <v>0.159</v>
       </c>
       <c r="E176">
-        <v>0.7947476101419261</v>
+        <v>0.02133589626883768</v>
       </c>
       <c r="F176">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G176">
-        <v>0.3260580013659122</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I176">
-        <v>0.9999823780018686</v>
+        <v>0.0227906164689857</v>
       </c>
     </row>
     <row r="177">
@@ -5667,26 +6537,31 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Glutamate Acid</t>
+          <t>Cysteine</t>
         </is>
       </c>
       <c r="C177">
-        <v>-0.3251592000699138</v>
+        <v>2.07210700856781</v>
       </c>
       <c r="D177">
-        <v>0.476</v>
+        <v>0.118</v>
       </c>
       <c r="E177">
-        <v>0.7855447575510819</v>
+        <v>0.01193548860697862</v>
       </c>
       <c r="F177">
-        <v>0.9572112676056338</v>
+        <v>0.1529931034482759</v>
       </c>
       <c r="G177">
-        <v>0.3223930472795069</v>
+        <v>0.9281179926938746</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I177">
-        <v>0.9999823780018686</v>
+        <v>0.01335638010780941</v>
       </c>
     </row>
     <row r="178">
@@ -5697,26 +6572,31 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso1</t>
+          <t>Phenylpyruvate</t>
         </is>
       </c>
       <c r="C178">
-        <v>-0.3348310830946409</v>
+        <v>2.068482658058016</v>
       </c>
       <c r="D178">
-        <v>0.495</v>
+        <v>0.173</v>
       </c>
       <c r="E178">
-        <v>0.7902132872888932</v>
+        <v>0.0265406514198102</v>
       </c>
       <c r="F178">
-        <v>0.9572112676056338</v>
+        <v>0.1767608695652174</v>
       </c>
       <c r="G178">
-        <v>0.3053948010664313</v>
+        <v>0.7619538968712046</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I178">
-        <v>0.9999823780018686</v>
+        <v>0.02787509758058277</v>
       </c>
     </row>
     <row r="179">
@@ -5727,26 +6607,31 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tauro-?-Muricholic Acid</t>
+          <t>Caffeate_iso2</t>
         </is>
       </c>
       <c r="C179">
-        <v>-0.4361239846073343</v>
+        <v>2.0369587450137</v>
       </c>
       <c r="D179">
-        <v>0.635</v>
+        <v>0.156</v>
       </c>
       <c r="E179">
-        <v>0.8203230053817778</v>
+        <v>0.02272103415202816</v>
       </c>
       <c r="F179">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G179">
-        <v>0.1972262747080243</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I179">
-        <v>0.9999823780018686</v>
+        <v>0.02413307582249318</v>
       </c>
     </row>
     <row r="180">
@@ -5757,26 +6642,31 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso2</t>
+          <t>Glutarate</t>
         </is>
       </c>
       <c r="C180">
-        <v>-0.4419241725036631</v>
+        <v>2.02138851361898</v>
       </c>
       <c r="D180">
-        <v>0.495</v>
+        <v>0.158</v>
       </c>
       <c r="E180">
-        <v>0.7328897625598219</v>
+        <v>0.02399797740540855</v>
       </c>
       <c r="F180">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G180">
-        <v>0.3053948010664313</v>
+        <v>0.8013429130455774</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I180">
-        <v>0.9999823780018686</v>
+        <v>0.02534617838324049</v>
       </c>
     </row>
     <row r="181">
@@ -5787,26 +6677,31 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
+          <t>Citrulline</t>
         </is>
       </c>
       <c r="C181">
-        <v>-0.4539908364740954</v>
+        <v>1.998030822951713</v>
       </c>
       <c r="D181">
-        <v>0.275</v>
+        <v>0.177</v>
       </c>
       <c r="E181">
-        <v>0.556496171246569</v>
+        <v>0.03143600914977188</v>
       </c>
       <c r="F181">
-        <v>0.9572112676056338</v>
+        <v>0.1798702702702702</v>
       </c>
       <c r="G181">
-        <v>0.5606673061697374</v>
+        <v>0.7520267336381934</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I181">
-        <v>0.9999823780018686</v>
+        <v>0.03229491650359078</v>
       </c>
     </row>
     <row r="182">
@@ -5817,26 +6712,31 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Oxoproline</t>
+          <t>Testosterone</t>
         </is>
       </c>
       <c r="C182">
-        <v>-0.4939314593511857</v>
+        <v>1.857625331215597</v>
       </c>
       <c r="D182">
-        <v>0.529</v>
+        <v>0.148</v>
       </c>
       <c r="E182">
-        <v>0.7301398571401227</v>
+        <v>0.02875127735835955</v>
       </c>
       <c r="F182">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G182">
-        <v>0.2765443279648142</v>
+        <v>0.8297382846050426</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I182">
-        <v>0.9999823780018686</v>
+        <v>0.03002911190761998</v>
       </c>
     </row>
     <row r="183">
@@ -5847,26 +6747,31 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cholate</t>
+          <t>Methionine_iso1</t>
         </is>
       </c>
       <c r="C183">
-        <v>-0.580950558779882</v>
+        <v>1.841421336715592</v>
       </c>
       <c r="D183">
-        <v>0.281</v>
+        <v>0.173</v>
       </c>
       <c r="E183">
-        <v>0.478327806685554</v>
+        <v>0.03952954693232362</v>
       </c>
       <c r="F183">
-        <v>0.9572112676056338</v>
+        <v>0.1767608695652174</v>
       </c>
       <c r="G183">
-        <v>0.5512936800949201</v>
+        <v>0.7619538968712046</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I183">
-        <v>0.9999823780018686</v>
+        <v>0.04038888490911326</v>
       </c>
     </row>
     <row r="184">
@@ -5877,26 +6782,31 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>N-Acetylneuraminate_iso1</t>
         </is>
       </c>
       <c r="C184">
-        <v>-0.647229465565955</v>
+        <v>1.835937017225666</v>
       </c>
       <c r="D184">
-        <v>0.452</v>
+        <v>0.15</v>
       </c>
       <c r="E184">
-        <v>0.5981297905170433</v>
+        <v>0.03071534824851096</v>
       </c>
       <c r="F184">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G184">
-        <v>0.3448615651886179</v>
+        <v>0.8239087409443188</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I184">
-        <v>0.9999823780018686</v>
+        <v>0.03190323464486221</v>
       </c>
     </row>
     <row r="185">
@@ -5907,26 +6817,31 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Glycochenodeoxycholate</t>
+          <t>3-Me-Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C185">
-        <v>-0.665371238426489</v>
+        <v>1.674277981911199</v>
       </c>
       <c r="D185">
-        <v>0.262</v>
+        <v>0.147</v>
       </c>
       <c r="E185">
-        <v>0.410161043955361</v>
+        <v>0.04035132013201981</v>
       </c>
       <c r="F185">
-        <v>0.9572112676056338</v>
+        <v>0.1766373626373627</v>
       </c>
       <c r="G185">
-        <v>0.5816987086802545</v>
+        <v>0.8326826652518239</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I185">
-        <v>0.9999823780018686</v>
+        <v>0.0410056658638904</v>
       </c>
     </row>
     <row r="186">
@@ -5937,26 +6852,31 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Glycocholate</t>
+          <t>5-Hydroxytryptophan</t>
         </is>
       </c>
       <c r="C186">
-        <v>-0.6778045524270382</v>
+        <v>1.658581340990702</v>
       </c>
       <c r="D186">
-        <v>0.424</v>
+        <v>0.123</v>
       </c>
       <c r="E186">
-        <v>0.5590194018892405</v>
+        <v>0.03094094681609391</v>
       </c>
       <c r="F186">
-        <v>0.9572112676056338</v>
+        <v>0.1583835616438356</v>
       </c>
       <c r="G186">
-        <v>0.3726341434072674</v>
+        <v>0.9100948885606021</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I186">
-        <v>0.9999823780018686</v>
+        <v>0.03196097802981129</v>
       </c>
     </row>
     <row r="187">
@@ -5967,26 +6887,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso3</t>
+          <t>2-Hydroxybutyrate_iso2</t>
         </is>
       </c>
       <c r="C187">
-        <v>-0.7011830923787256</v>
+        <v>1.624469504514976</v>
       </c>
       <c r="D187">
-        <v>0.399</v>
+        <v>0.344</v>
       </c>
       <c r="E187">
-        <v>0.5250600082570357</v>
+        <v>0.1766661410749549</v>
       </c>
       <c r="F187">
-        <v>0.9572112676056338</v>
+        <v>0.344</v>
       </c>
       <c r="G187">
-        <v>0.3990271043132517</v>
+        <v>0.4634415574284699</v>
       </c>
       <c r="I187">
-        <v>0.9999823780018686</v>
+        <v>0.178565777000492</v>
       </c>
     </row>
     <row r="188">
@@ -5997,26 +6917,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso1</t>
+          <t>Glycocholic Acid_iso2</t>
         </is>
       </c>
       <c r="C188">
-        <v>-0.8499337281730481</v>
+        <v>1.553762930936266</v>
       </c>
       <c r="D188">
-        <v>0.414</v>
+        <v>0.334</v>
       </c>
       <c r="E188">
-        <v>0.4725803635289201</v>
+        <v>0.1819763351277085</v>
       </c>
       <c r="F188">
-        <v>0.9572112676056338</v>
+        <v>0.3357860962566845</v>
       </c>
       <c r="G188">
-        <v>0.3829996588791011</v>
+        <v>0.4762535331884355</v>
       </c>
       <c r="I188">
-        <v>0.9999823780018686</v>
+        <v>0.1829494706096748</v>
       </c>
     </row>
     <row r="189">
@@ -6027,26 +6947,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso2</t>
+          <t>Biliverdin_iso2</t>
         </is>
       </c>
       <c r="C189">
-        <v>-1.287881915575833</v>
+        <v>0.9862885523554438</v>
       </c>
       <c r="D189">
-        <v>0.198</v>
+        <v>0.268</v>
       </c>
       <c r="E189">
-        <v>0.124218939711522</v>
+        <v>0.2728826311175423</v>
       </c>
       <c r="F189">
-        <v>0.9572112676056338</v>
+        <v>0.2708817204301076</v>
       </c>
       <c r="G189">
-        <v>0.7033348097384688</v>
+        <v>0.5718652059712112</v>
       </c>
       <c r="I189">
-        <v>0.9999823780018686</v>
+        <v>0.2728826311175423</v>
       </c>
     </row>
   </sheetData>
